--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauro.telles\Desktop\Mesa_app_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648966A7-4B0C-4282-A931-AF5DB70B8866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271D31EC-873A-4A64-9EF2-00E15E5B496A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9E969585-DC83-4D1B-BEAF-E5DFF021775C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7516" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7516" uniqueCount="898">
   <si>
     <t>Backoffice</t>
   </si>
@@ -1478,9 +1478,6 @@
     <t xml:space="preserve">Leonardo Luis de Barros Rodrigues    </t>
   </si>
   <si>
-    <t>Alteração de carteira para fundo Equity Head</t>
-  </si>
-  <si>
     <t xml:space="preserve">Leonardo Pena de Faria	</t>
   </si>
   <si>
@@ -1674,10 +1671,6 @@
   </si>
   <si>
     <t>Marcus Vinicius de Lucena Heusi</t>
-  </si>
-  <si>
-    <t>Utilizar os próximos vencimentos (2x LCI BTG de 02/10/23 aprox. 50k) para alocar em liquidez diária (cliente poderá precisar desses recursos nos próximos meses) _x000D_
-_x000D_</t>
   </si>
   <si>
     <t>Margareth De Freitas Oliveira</t>
@@ -2735,6 +2728,10 @@
   </si>
   <si>
     <t>Walquiria da Silva Viana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizar os próximos vencimentos (2x LCI BTG de 02/10/23 aprox. 50k) para alocar em liquidez diária (cliente poderá precisar desses recursos nos próximos meses) 
+</t>
   </si>
 </sst>
 </file>
@@ -3099,7 +3096,7 @@
   <dimension ref="A1:AK609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,6 +3129,9 @@
       <c r="X1" t="s">
         <v>5</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3159,7 +3159,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -3263,7 +3263,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="T6" t="s">
         <v>38</v>
@@ -3716,7 +3716,7 @@
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
@@ -3843,7 +3843,7 @@
         <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -4278,7 +4278,7 @@
         <v>0.1</v>
       </c>
       <c r="Q17" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="T17" t="s">
         <v>38</v>
@@ -4310,7 +4310,7 @@
         <v>31</v>
       </c>
       <c r="F18" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -4446,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G20" t="s">
         <v>32</v>
@@ -4606,7 +4606,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C22">
         <v>5110894</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="T22" t="s">
         <v>38</v>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="T23" t="s">
         <v>38</v>
@@ -5287,7 +5287,7 @@
         <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="S34" t="s">
         <v>105</v>
@@ -5755,7 +5755,7 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C37">
         <v>3894173</v>
@@ -5767,7 +5767,7 @@
         <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G37" t="s">
         <v>65</v>
@@ -5797,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="S37" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="T37" t="s">
         <v>38</v>
@@ -6195,7 +6195,7 @@
         <v>0.1</v>
       </c>
       <c r="Q42" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="R42" t="s">
         <v>118</v>
@@ -6638,7 +6638,7 @@
         <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -6808,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="S50" t="s">
         <v>130</v>
@@ -7651,7 +7651,7 @@
         <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="T62" t="s">
         <v>38</v>
@@ -7844,7 +7844,7 @@
         <v>0.1</v>
       </c>
       <c r="S64" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="T64" t="s">
         <v>38</v>
@@ -8237,7 +8237,7 @@
         <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G69" t="s">
         <v>45</v>
@@ -8304,7 +8304,7 @@
         <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C70">
         <v>5135105</v>
@@ -9187,7 +9187,7 @@
         <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C82">
         <v>5140608</v>
@@ -9417,7 +9417,7 @@
         <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G85" t="s">
         <v>45</v>
@@ -9579,7 +9579,7 @@
         <v>31</v>
       </c>
       <c r="F87" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G87" t="s">
         <v>45</v>
@@ -9652,7 +9652,7 @@
         <v>31</v>
       </c>
       <c r="F88" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -10434,7 +10434,7 @@
         <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C98">
         <v>5140580</v>
@@ -10508,7 +10508,7 @@
         <v>31</v>
       </c>
       <c r="F99" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G99" t="s">
         <v>32</v>
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="Q109" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="S109" t="s">
         <v>211</v>
@@ -11520,7 +11520,7 @@
         <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G112" t="s">
         <v>45</v>
@@ -11589,7 +11589,7 @@
         <v>31</v>
       </c>
       <c r="F113" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G113" t="s">
         <v>45</v>
@@ -12380,7 +12380,7 @@
         <v>0.1</v>
       </c>
       <c r="S123" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="T123" t="s">
         <v>38</v>
@@ -12504,7 +12504,7 @@
         <v>31</v>
       </c>
       <c r="F125" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G125" t="s">
         <v>45</v>
@@ -12577,7 +12577,7 @@
         <v>31</v>
       </c>
       <c r="F126" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G126" t="s">
         <v>45</v>
@@ -12810,7 +12810,7 @@
         <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G129" t="s">
         <v>45</v>
@@ -13150,7 +13150,7 @@
         <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G133" t="s">
         <v>45</v>
@@ -13234,7 +13234,7 @@
         <v>31</v>
       </c>
       <c r="F134" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G134" t="s">
         <v>45</v>
@@ -13311,7 +13311,7 @@
         <v>28</v>
       </c>
       <c r="B135" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C135">
         <v>4452507</v>
@@ -13691,7 +13691,7 @@
         <v>28</v>
       </c>
       <c r="B140" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C140">
         <v>5084112</v>
@@ -13766,7 +13766,7 @@
         <v>31</v>
       </c>
       <c r="F141" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G141" t="s">
         <v>32</v>
@@ -13908,7 +13908,7 @@
         <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G143" t="s">
         <v>45</v>
@@ -14533,7 +14533,7 @@
         <v>28</v>
       </c>
       <c r="B151" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C151">
         <v>5110867</v>
@@ -14545,7 +14545,7 @@
         <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G151" t="s">
         <v>65</v>
@@ -14988,7 +14988,7 @@
         <v>28</v>
       </c>
       <c r="B157" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C157">
         <v>5077648</v>
@@ -15143,7 +15143,7 @@
         <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G159" t="s">
         <v>45</v>
@@ -15567,7 +15567,7 @@
         <v>44972</v>
       </c>
       <c r="M164" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N164" s="2">
         <v>7.0000000000000001E-3</v>
@@ -15579,7 +15579,7 @@
         <v>0</v>
       </c>
       <c r="S164" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="T164" t="s">
         <v>38</v>
@@ -15713,7 +15713,7 @@
         <v>31</v>
       </c>
       <c r="F166" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H166" t="s">
         <v>74</v>
@@ -15942,7 +15942,7 @@
         <v>31</v>
       </c>
       <c r="F169" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G169" t="s">
         <v>32</v>
@@ -16169,7 +16169,7 @@
         <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G172" t="s">
         <v>45</v>
@@ -16313,7 +16313,7 @@
         <v>31</v>
       </c>
       <c r="F174" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G174" t="s">
         <v>45</v>
@@ -16387,7 +16387,7 @@
         <v>28</v>
       </c>
       <c r="B175" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C175">
         <v>5064544</v>
@@ -16468,7 +16468,7 @@
         <v>31</v>
       </c>
       <c r="F176" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G176" t="s">
         <v>45</v>
@@ -16740,7 +16740,7 @@
         <v>28</v>
       </c>
       <c r="B180" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C180">
         <v>5101676</v>
@@ -17137,7 +17137,7 @@
         <v>31</v>
       </c>
       <c r="F185" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G185" t="s">
         <v>45</v>
@@ -17348,7 +17348,7 @@
         <v>28</v>
       </c>
       <c r="B188" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C188">
         <v>4971783</v>
@@ -17448,7 +17448,7 @@
         <v>0</v>
       </c>
       <c r="S189" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="T189" t="s">
         <v>38</v>
@@ -17723,7 +17723,7 @@
         <v>31</v>
       </c>
       <c r="F193" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G193" t="s">
         <v>32</v>
@@ -17823,7 +17823,7 @@
         <v>0.1</v>
       </c>
       <c r="Q194" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="T194" t="s">
         <v>38</v>
@@ -18023,7 +18023,7 @@
         <v>31</v>
       </c>
       <c r="F197" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G197" t="s">
         <v>45</v>
@@ -18277,7 +18277,7 @@
         <v>0.2</v>
       </c>
       <c r="S200" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="T200" t="s">
         <v>38</v>
@@ -18480,19 +18480,19 @@
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C203">
         <v>626491</v>
       </c>
       <c r="D203" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E203" t="s">
         <v>41</v>
       </c>
       <c r="F203" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G203" t="s">
         <v>45</v>
@@ -18542,19 +18542,19 @@
         <v>28</v>
       </c>
       <c r="B204" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C204">
         <v>5135532</v>
       </c>
       <c r="D204" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E204" t="s">
         <v>41</v>
       </c>
       <c r="F204" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G204" t="s">
         <v>45</v>
@@ -18584,7 +18584,7 @@
         <v>0</v>
       </c>
       <c r="Q204" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="T204" t="s">
         <v>38</v>
@@ -18606,7 +18606,7 @@
         <v>28</v>
       </c>
       <c r="B205" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C205">
         <v>4895776</v>
@@ -18618,7 +18618,7 @@
         <v>31</v>
       </c>
       <c r="F205" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G205" t="s">
         <v>32</v>
@@ -18633,7 +18633,7 @@
         <v>45264</v>
       </c>
       <c r="M205" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N205" s="2">
         <v>1.4E-2</v>
@@ -18920,7 +18920,7 @@
         <v>31</v>
       </c>
       <c r="F209" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G209" t="s">
         <v>45</v>
@@ -19541,7 +19541,7 @@
         <v>0</v>
       </c>
       <c r="S216" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T216" t="s">
         <v>38</v>
@@ -19893,7 +19893,7 @@
         <v>31</v>
       </c>
       <c r="F221" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G221" t="s">
         <v>45</v>
@@ -20185,7 +20185,7 @@
         <v>28</v>
       </c>
       <c r="B225" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C225">
         <v>3921139</v>
@@ -20197,7 +20197,7 @@
         <v>31</v>
       </c>
       <c r="F225" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G225" t="s">
         <v>45</v>
@@ -20359,7 +20359,7 @@
         <v>0.1</v>
       </c>
       <c r="S227" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="T227" t="s">
         <v>38</v>
@@ -20431,7 +20431,7 @@
         <v>0</v>
       </c>
       <c r="Q228" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="T228" t="s">
         <v>38</v>
@@ -20514,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="S229" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="T229" t="s">
         <v>38</v>
@@ -20626,7 +20626,7 @@
         <v>28</v>
       </c>
       <c r="B231" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C231">
         <v>5056185</v>
@@ -20668,7 +20668,7 @@
         <v>0</v>
       </c>
       <c r="Q231" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="T231" t="s">
         <v>38</v>
@@ -20923,7 +20923,7 @@
         <v>28</v>
       </c>
       <c r="B235" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C235">
         <v>5087681</v>
@@ -20965,10 +20965,10 @@
         <v>0</v>
       </c>
       <c r="Q235" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="S235" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="T235" t="s">
         <v>38</v>
@@ -21004,7 +21004,7 @@
         <v>31</v>
       </c>
       <c r="F236" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G236" t="s">
         <v>45</v>
@@ -21278,7 +21278,7 @@
         <v>0.1</v>
       </c>
       <c r="Q239" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="T239" t="s">
         <v>38</v>
@@ -21735,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="Q245" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="T245" t="s">
         <v>38</v>
@@ -22598,7 +22598,7 @@
         <v>31</v>
       </c>
       <c r="F256" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G256" t="s">
         <v>45</v>
@@ -22904,7 +22904,7 @@
         <v>28</v>
       </c>
       <c r="B260" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C260">
         <v>4996634</v>
@@ -22916,7 +22916,7 @@
         <v>31</v>
       </c>
       <c r="F260" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G260" t="s">
         <v>45</v>
@@ -23628,7 +23628,7 @@
         <v>28</v>
       </c>
       <c r="B269" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C269">
         <v>4973881</v>
@@ -23640,7 +23640,7 @@
         <v>31</v>
       </c>
       <c r="F269" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G269" t="s">
         <v>32</v>
@@ -23889,7 +23889,7 @@
         <v>0</v>
       </c>
       <c r="S272" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="T272" t="s">
         <v>128</v>
@@ -23945,7 +23945,7 @@
         <v>31</v>
       </c>
       <c r="F273" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G273" t="s">
         <v>45</v>
@@ -24388,7 +24388,7 @@
         <v>0.2</v>
       </c>
       <c r="Q278" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="T278" t="s">
         <v>38</v>
@@ -24729,7 +24729,7 @@
         <v>0</v>
       </c>
       <c r="S282" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="T282" t="s">
         <v>38</v>
@@ -24853,7 +24853,7 @@
         <v>28</v>
       </c>
       <c r="B284" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C284">
         <v>5079458</v>
@@ -24993,7 +24993,7 @@
         <v>28</v>
       </c>
       <c r="B286" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C286">
         <v>5121919</v>
@@ -25145,7 +25145,7 @@
         <v>31</v>
       </c>
       <c r="F288" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G288" t="s">
         <v>45</v>
@@ -25175,7 +25175,7 @@
         <v>0</v>
       </c>
       <c r="Q288" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="T288" t="s">
         <v>38</v>
@@ -25309,7 +25309,7 @@
         <v>31</v>
       </c>
       <c r="F290" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G290" t="s">
         <v>32</v>
@@ -25363,7 +25363,7 @@
         <v>28</v>
       </c>
       <c r="B291" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C291">
         <v>5146441</v>
@@ -25432,7 +25432,7 @@
         <v>31</v>
       </c>
       <c r="F292" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G292" t="s">
         <v>45</v>
@@ -25987,7 +25987,7 @@
         <v>28</v>
       </c>
       <c r="B299" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C299">
         <v>5079311</v>
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="Q299" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="T299" t="s">
         <v>38</v>
@@ -26234,7 +26234,7 @@
         <v>31</v>
       </c>
       <c r="F302" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G302" t="s">
         <v>45</v>
@@ -26305,7 +26305,7 @@
         <v>31</v>
       </c>
       <c r="F303" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G303" t="s">
         <v>45</v>
@@ -26628,7 +26628,7 @@
         <v>31</v>
       </c>
       <c r="F307" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G307" t="s">
         <v>45</v>
@@ -26696,7 +26696,7 @@
         <v>28</v>
       </c>
       <c r="B308" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C308">
         <v>5070742</v>
@@ -26739,7 +26739,7 @@
         <v>0</v>
       </c>
       <c r="Q308" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="T308" t="s">
         <v>38</v>
@@ -26765,7 +26765,7 @@
         <v>28</v>
       </c>
       <c r="B309" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C309">
         <v>5141215</v>
@@ -26837,7 +26837,7 @@
         <v>31</v>
       </c>
       <c r="F310" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H310" t="s">
         <v>76</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="Q312" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="T312" t="s">
         <v>38</v>
@@ -27182,7 +27182,7 @@
         <v>0</v>
       </c>
       <c r="S314" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="T314" t="s">
         <v>38</v>
@@ -27313,7 +27313,7 @@
         <v>31</v>
       </c>
       <c r="F316" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G316" t="s">
         <v>45</v>
@@ -27392,7 +27392,7 @@
         <v>31</v>
       </c>
       <c r="F317" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G317" t="s">
         <v>45</v>
@@ -27585,7 +27585,7 @@
         <v>77</v>
       </c>
       <c r="S319" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="T319" t="s">
         <v>38</v>
@@ -27717,7 +27717,7 @@
         <v>31</v>
       </c>
       <c r="F321" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G321" t="s">
         <v>45</v>
@@ -27887,7 +27887,7 @@
         <v>31</v>
       </c>
       <c r="F323" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G323" t="s">
         <v>45</v>
@@ -28122,7 +28122,7 @@
         <v>31</v>
       </c>
       <c r="F326" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G326" t="s">
         <v>32</v>
@@ -28523,7 +28523,7 @@
         <v>31</v>
       </c>
       <c r="F331" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G331" t="s">
         <v>32</v>
@@ -28581,7 +28581,7 @@
         <v>28</v>
       </c>
       <c r="B332" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C332">
         <v>5076418</v>
@@ -28918,7 +28918,7 @@
         <v>34</v>
       </c>
       <c r="J336" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K336" s="1">
         <v>44973</v>
@@ -28935,9 +28935,6 @@
       <c r="P336" s="3">
         <v>0.1</v>
       </c>
-      <c r="Q336" t="s">
-        <v>480</v>
-      </c>
       <c r="T336" t="s">
         <v>38</v>
       </c>
@@ -28980,7 +28977,7 @@
         <v>28</v>
       </c>
       <c r="B337" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C337">
         <v>4278212</v>
@@ -29064,7 +29061,7 @@
         <v>28</v>
       </c>
       <c r="B338" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C338">
         <v>4334158</v>
@@ -29147,7 +29144,7 @@
         <v>28</v>
       </c>
       <c r="B339" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C339">
         <v>4403674</v>
@@ -29159,7 +29156,7 @@
         <v>31</v>
       </c>
       <c r="F339" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G339" t="s">
         <v>32</v>
@@ -29226,7 +29223,7 @@
         <v>28</v>
       </c>
       <c r="B340" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C340">
         <v>4332747</v>
@@ -29309,7 +29306,7 @@
         <v>28</v>
       </c>
       <c r="B341" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C341">
         <v>4547073</v>
@@ -29386,7 +29383,7 @@
         <v>28</v>
       </c>
       <c r="B342" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C342">
         <v>4766708</v>
@@ -29457,7 +29454,7 @@
         <v>28</v>
       </c>
       <c r="B343" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C343">
         <v>4567880</v>
@@ -29534,7 +29531,7 @@
         <v>28</v>
       </c>
       <c r="B344" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C344">
         <v>4431689</v>
@@ -29615,7 +29612,7 @@
         <v>28</v>
       </c>
       <c r="B345" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C345">
         <v>4914070</v>
@@ -29627,7 +29624,7 @@
         <v>31</v>
       </c>
       <c r="F345" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G345" t="s">
         <v>32</v>
@@ -29657,7 +29654,7 @@
         <v>0.1</v>
       </c>
       <c r="S345" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="T345" t="s">
         <v>38</v>
@@ -29688,7 +29685,7 @@
         <v>28</v>
       </c>
       <c r="B346" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C346">
         <v>4473829</v>
@@ -29768,7 +29765,7 @@
         <v>28</v>
       </c>
       <c r="B347" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C347">
         <v>5122672</v>
@@ -29828,7 +29825,7 @@
         <v>28</v>
       </c>
       <c r="B348" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C348">
         <v>4490955</v>
@@ -29907,7 +29904,7 @@
         <v>28</v>
       </c>
       <c r="B349" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C349">
         <v>4432455</v>
@@ -29949,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="Q349" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="T349" t="s">
         <v>38</v>
@@ -29987,7 +29984,7 @@
         <v>28</v>
       </c>
       <c r="B350" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C350">
         <v>4804036</v>
@@ -30061,7 +30058,7 @@
         <v>28</v>
       </c>
       <c r="B351" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C351">
         <v>827730</v>
@@ -30103,7 +30100,7 @@
         <v>0</v>
       </c>
       <c r="R351" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T351" t="s">
         <v>38</v>
@@ -30135,7 +30132,7 @@
         <v>28</v>
       </c>
       <c r="B352" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C352">
         <v>4544289</v>
@@ -30206,7 +30203,7 @@
         <v>28</v>
       </c>
       <c r="B353" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C353">
         <v>5002390</v>
@@ -30248,7 +30245,7 @@
         <v>0.1</v>
       </c>
       <c r="S353" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="T353" t="s">
         <v>38</v>
@@ -30277,7 +30274,7 @@
         <v>28</v>
       </c>
       <c r="B354" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C354">
         <v>4376145</v>
@@ -30361,7 +30358,7 @@
         <v>28</v>
       </c>
       <c r="B355" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C355">
         <v>1719494</v>
@@ -30444,7 +30441,7 @@
         <v>28</v>
       </c>
       <c r="B356" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C356">
         <v>4754920</v>
@@ -30517,7 +30514,7 @@
         <v>28</v>
       </c>
       <c r="B357" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C357">
         <v>4472431</v>
@@ -30594,7 +30591,7 @@
         <v>28</v>
       </c>
       <c r="B358" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C358">
         <v>4546050</v>
@@ -30636,7 +30633,7 @@
         <v>0</v>
       </c>
       <c r="S358" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T358" t="s">
         <v>38</v>
@@ -30673,7 +30670,7 @@
         <v>28</v>
       </c>
       <c r="B359" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C359">
         <v>4568300</v>
@@ -30715,7 +30712,7 @@
         <v>0.1</v>
       </c>
       <c r="S359" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="T359" t="s">
         <v>38</v>
@@ -30754,7 +30751,7 @@
         <v>28</v>
       </c>
       <c r="B360" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C360">
         <v>4380948</v>
@@ -30796,10 +30793,10 @@
         <v>0</v>
       </c>
       <c r="Q360" t="s">
+        <v>503</v>
+      </c>
+      <c r="S360" t="s">
         <v>504</v>
-      </c>
-      <c r="S360" t="s">
-        <v>505</v>
       </c>
       <c r="T360" t="s">
         <v>38</v>
@@ -30842,7 +30839,7 @@
         <v>28</v>
       </c>
       <c r="B361" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C361">
         <v>4298042</v>
@@ -30884,10 +30881,10 @@
         <v>0.1</v>
       </c>
       <c r="Q361" t="s">
+        <v>506</v>
+      </c>
+      <c r="R361" t="s">
         <v>507</v>
-      </c>
-      <c r="R361" t="s">
-        <v>508</v>
       </c>
       <c r="T361" t="s">
         <v>38</v>
@@ -30931,7 +30928,7 @@
         <v>28</v>
       </c>
       <c r="B362" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C362">
         <v>4239387</v>
@@ -31006,7 +31003,7 @@
         <v>28</v>
       </c>
       <c r="B363" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C363">
         <v>4458563</v>
@@ -31086,7 +31083,7 @@
         <v>28</v>
       </c>
       <c r="B364" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C364">
         <v>4348479</v>
@@ -31098,7 +31095,7 @@
         <v>31</v>
       </c>
       <c r="F364" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H364" t="s">
         <v>74</v>
@@ -31161,7 +31158,7 @@
         <v>28</v>
       </c>
       <c r="B365" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C365">
         <v>4877741</v>
@@ -31173,7 +31170,7 @@
         <v>31</v>
       </c>
       <c r="F365" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G365" t="s">
         <v>32</v>
@@ -31231,7 +31228,7 @@
         <v>28</v>
       </c>
       <c r="B366" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C366">
         <v>4554411</v>
@@ -31243,7 +31240,7 @@
         <v>31</v>
       </c>
       <c r="F366" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G366" t="s">
         <v>45</v>
@@ -31300,7 +31297,7 @@
         <v>28</v>
       </c>
       <c r="B367" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C367">
         <v>4517506</v>
@@ -31376,7 +31373,7 @@
         <v>28</v>
       </c>
       <c r="B368" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C368">
         <v>4369172</v>
@@ -31459,7 +31456,7 @@
         <v>28</v>
       </c>
       <c r="B369" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C369">
         <v>5121756</v>
@@ -31520,7 +31517,7 @@
         <v>28</v>
       </c>
       <c r="B370" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C370">
         <v>4752615</v>
@@ -31591,7 +31588,7 @@
         <v>28</v>
       </c>
       <c r="B371" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C371">
         <v>4383190</v>
@@ -31603,7 +31600,7 @@
         <v>31</v>
       </c>
       <c r="F371" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G371" t="s">
         <v>45</v>
@@ -31633,7 +31630,7 @@
         <v>0</v>
       </c>
       <c r="Q371" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="T371" t="s">
         <v>38</v>
@@ -31677,7 +31674,7 @@
         <v>28</v>
       </c>
       <c r="B372" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C372">
         <v>4481463</v>
@@ -31758,7 +31755,7 @@
         <v>28</v>
       </c>
       <c r="B373" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C373">
         <v>4556853</v>
@@ -31800,10 +31797,10 @@
         <v>0.2</v>
       </c>
       <c r="Q373" t="s">
+        <v>520</v>
+      </c>
+      <c r="R373" t="s">
         <v>521</v>
-      </c>
-      <c r="R373" t="s">
-        <v>522</v>
       </c>
       <c r="T373" t="s">
         <v>38</v>
@@ -31841,7 +31838,7 @@
         <v>28</v>
       </c>
       <c r="B374" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C374">
         <v>4264780</v>
@@ -31884,7 +31881,7 @@
       </c>
       <c r="Q374" s="5"/>
       <c r="R374" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="T374" t="s">
         <v>38</v>
@@ -31931,7 +31928,7 @@
         <v>28</v>
       </c>
       <c r="B375" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C375">
         <v>772433</v>
@@ -31973,10 +31970,10 @@
         <v>0</v>
       </c>
       <c r="Q375" t="s">
+        <v>524</v>
+      </c>
+      <c r="R375" t="s">
         <v>525</v>
-      </c>
-      <c r="R375" t="s">
-        <v>526</v>
       </c>
       <c r="T375" t="s">
         <v>38</v>
@@ -32023,7 +32020,7 @@
         <v>28</v>
       </c>
       <c r="B376" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C376">
         <v>4983378</v>
@@ -32091,7 +32088,7 @@
         <v>28</v>
       </c>
       <c r="B377" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C377">
         <v>4983395</v>
@@ -32158,7 +32155,7 @@
         <v>28</v>
       </c>
       <c r="B378" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C378">
         <v>4455356</v>
@@ -32238,7 +32235,7 @@
         <v>28</v>
       </c>
       <c r="B379" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C379">
         <v>4444380</v>
@@ -32317,7 +32314,7 @@
         <v>28</v>
       </c>
       <c r="B380" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C380">
         <v>4748761</v>
@@ -32329,7 +32326,7 @@
         <v>31</v>
       </c>
       <c r="F380" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G380" t="s">
         <v>45</v>
@@ -32390,7 +32387,7 @@
         <v>28</v>
       </c>
       <c r="B381" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C381">
         <v>2950732</v>
@@ -32433,7 +32430,7 @@
       </c>
       <c r="Q381" s="5"/>
       <c r="S381" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="T381" t="s">
         <v>38</v>
@@ -32471,7 +32468,7 @@
         <v>28</v>
       </c>
       <c r="B382" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C382">
         <v>4502767</v>
@@ -32551,7 +32548,7 @@
         <v>28</v>
       </c>
       <c r="B383" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C383">
         <v>4854514</v>
@@ -32563,7 +32560,7 @@
         <v>31</v>
       </c>
       <c r="F383" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G383" t="s">
         <v>32</v>
@@ -32620,7 +32617,7 @@
         <v>28</v>
       </c>
       <c r="B384" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C384">
         <v>4547722</v>
@@ -32662,10 +32659,10 @@
         <v>0</v>
       </c>
       <c r="Q384" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="R384" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T384" t="s">
         <v>38</v>
@@ -32700,7 +32697,7 @@
         <v>28</v>
       </c>
       <c r="B385" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C385">
         <v>4527606</v>
@@ -32774,7 +32771,7 @@
         <v>28</v>
       </c>
       <c r="B386" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C386">
         <v>4415248</v>
@@ -32856,7 +32853,7 @@
         <v>28</v>
       </c>
       <c r="B387" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C387">
         <v>4463586</v>
@@ -32936,7 +32933,7 @@
         <v>28</v>
       </c>
       <c r="B388" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C388">
         <v>5042222</v>
@@ -33004,7 +33001,7 @@
         <v>28</v>
       </c>
       <c r="B389" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C389">
         <v>4240292</v>
@@ -33087,7 +33084,7 @@
         <v>28</v>
       </c>
       <c r="B390" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C390">
         <v>4435987</v>
@@ -33166,7 +33163,7 @@
         <v>28</v>
       </c>
       <c r="B391" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C391">
         <v>4436055</v>
@@ -33244,7 +33241,7 @@
         <v>28</v>
       </c>
       <c r="B392" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C392">
         <v>4454491</v>
@@ -33321,7 +33318,7 @@
         <v>28</v>
       </c>
       <c r="B393" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C393">
         <v>4254210</v>
@@ -33363,10 +33360,10 @@
         <v>0.2</v>
       </c>
       <c r="Q393" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="R393" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="T393" t="s">
         <v>38</v>
@@ -33413,7 +33410,7 @@
         <v>28</v>
       </c>
       <c r="B394" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C394">
         <v>4853111</v>
@@ -33486,7 +33483,7 @@
         <v>28</v>
       </c>
       <c r="B395" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C395">
         <v>4752519</v>
@@ -33560,7 +33557,7 @@
         <v>28</v>
       </c>
       <c r="B396" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C396">
         <v>834301</v>
@@ -33640,7 +33637,7 @@
         <v>28</v>
       </c>
       <c r="B397" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C397">
         <v>4575621</v>
@@ -33652,7 +33649,7 @@
         <v>31</v>
       </c>
       <c r="F397" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G397" t="s">
         <v>32</v>
@@ -33682,7 +33679,7 @@
         <v>0.1</v>
       </c>
       <c r="Q397" s="5" t="s">
-        <v>546</v>
+        <v>897</v>
       </c>
       <c r="T397" t="s">
         <v>38</v>
@@ -33716,7 +33713,7 @@
         <v>28</v>
       </c>
       <c r="B398" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C398">
         <v>2738211</v>
@@ -33728,7 +33725,7 @@
         <v>31</v>
       </c>
       <c r="F398" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G398" t="s">
         <v>45</v>
@@ -33791,7 +33788,7 @@
         <v>28</v>
       </c>
       <c r="B399" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C399">
         <v>4811224</v>
@@ -33803,7 +33800,7 @@
         <v>31</v>
       </c>
       <c r="F399" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G399" t="s">
         <v>45</v>
@@ -33865,7 +33862,7 @@
         <v>28</v>
       </c>
       <c r="B400" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C400">
         <v>4807944</v>
@@ -33907,10 +33904,10 @@
         <v>0</v>
       </c>
       <c r="R400" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S400" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="T400" t="s">
         <v>38</v>
@@ -33942,7 +33939,7 @@
         <v>28</v>
       </c>
       <c r="B401" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C401">
         <v>4552021</v>
@@ -34020,7 +34017,7 @@
         <v>28</v>
       </c>
       <c r="B402" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C402">
         <v>4212476</v>
@@ -34062,10 +34059,10 @@
         <v>0</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R402" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="T402" t="s">
         <v>38</v>
@@ -34109,7 +34106,7 @@
         <v>28</v>
       </c>
       <c r="B403" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C403">
         <v>4214460</v>
@@ -34139,7 +34136,7 @@
         <v>44957</v>
       </c>
       <c r="M403" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N403" s="2">
         <v>0.01</v>
@@ -34192,7 +34189,7 @@
         <v>28</v>
       </c>
       <c r="B404" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C404">
         <v>4893523</v>
@@ -34234,10 +34231,10 @@
         <v>0</v>
       </c>
       <c r="Q404" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="R404" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="T404" t="s">
         <v>38</v>
@@ -34268,7 +34265,7 @@
         <v>28</v>
       </c>
       <c r="B405" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C405">
         <v>4541022</v>
@@ -34310,7 +34307,7 @@
         <v>0</v>
       </c>
       <c r="S405" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="T405" t="s">
         <v>38</v>
@@ -34349,7 +34346,7 @@
         <v>28</v>
       </c>
       <c r="B406" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C406">
         <v>4972070</v>
@@ -34418,7 +34415,7 @@
         <v>28</v>
       </c>
       <c r="B407" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C407">
         <v>4870019</v>
@@ -34430,7 +34427,7 @@
         <v>31</v>
       </c>
       <c r="F407" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G407" t="s">
         <v>45</v>
@@ -34483,7 +34480,7 @@
         <v>28</v>
       </c>
       <c r="B408" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C408">
         <v>4395314</v>
@@ -34563,7 +34560,7 @@
         <v>28</v>
       </c>
       <c r="B409" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C409">
         <v>4214604</v>
@@ -34646,7 +34643,7 @@
         <v>28</v>
       </c>
       <c r="B410" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C410">
         <v>4212581</v>
@@ -34688,10 +34685,10 @@
         <v>0</v>
       </c>
       <c r="Q410" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="R410" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="T410" t="s">
         <v>38</v>
@@ -34735,7 +34732,7 @@
         <v>28</v>
       </c>
       <c r="B411" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C411">
         <v>4242237</v>
@@ -34777,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="Q411" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="R411" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="T411" t="s">
         <v>38</v>
@@ -34825,7 +34822,7 @@
         <v>28</v>
       </c>
       <c r="B412" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C412">
         <v>4525587</v>
@@ -34867,7 +34864,7 @@
         <v>0</v>
       </c>
       <c r="S412" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T412" t="s">
         <v>38</v>
@@ -34905,7 +34902,7 @@
         <v>28</v>
       </c>
       <c r="B413" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C413">
         <v>4920447</v>
@@ -34974,7 +34971,7 @@
         <v>28</v>
       </c>
       <c r="B414" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C414">
         <v>5000460</v>
@@ -35041,7 +35038,7 @@
         <v>28</v>
       </c>
       <c r="B415" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C415">
         <v>5046919</v>
@@ -35104,7 +35101,7 @@
         <v>28</v>
       </c>
       <c r="B416" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C416">
         <v>4371913</v>
@@ -35190,7 +35187,7 @@
         <v>28</v>
       </c>
       <c r="B417" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C417">
         <v>4556150</v>
@@ -35266,7 +35263,7 @@
         <v>28</v>
       </c>
       <c r="B418" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C418">
         <v>3249855</v>
@@ -35339,7 +35336,7 @@
         <v>28</v>
       </c>
       <c r="B419" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C419">
         <v>4405702</v>
@@ -35351,7 +35348,7 @@
         <v>41</v>
       </c>
       <c r="F419" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H419" t="s">
         <v>76</v>
@@ -35378,7 +35375,7 @@
         <v>0.1</v>
       </c>
       <c r="S419" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="T419" t="s">
         <v>38</v>
@@ -35420,7 +35417,7 @@
         <v>28</v>
       </c>
       <c r="B420" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C420">
         <v>4428935</v>
@@ -35499,7 +35496,7 @@
         <v>28</v>
       </c>
       <c r="B421" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C421">
         <v>4431591</v>
@@ -35578,7 +35575,7 @@
         <v>28</v>
       </c>
       <c r="B422" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C422">
         <v>4643746</v>
@@ -35590,7 +35587,7 @@
         <v>31</v>
       </c>
       <c r="F422" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G422" t="s">
         <v>45</v>
@@ -35620,10 +35617,10 @@
         <v>0.1</v>
       </c>
       <c r="Q422" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="R422" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="T422" t="s">
         <v>38</v>
@@ -35661,7 +35658,7 @@
         <v>28</v>
       </c>
       <c r="B423" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C423">
         <v>4395599</v>
@@ -35742,7 +35739,7 @@
         <v>28</v>
       </c>
       <c r="B424" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C424">
         <v>5140667</v>
@@ -35804,7 +35801,7 @@
         <v>28</v>
       </c>
       <c r="B425" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C425">
         <v>4451652</v>
@@ -35883,7 +35880,7 @@
         <v>28</v>
       </c>
       <c r="B426" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C426">
         <v>4756981</v>
@@ -35956,7 +35953,7 @@
         <v>28</v>
       </c>
       <c r="B427" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C427">
         <v>4115381</v>
@@ -36042,7 +36039,7 @@
         <v>28</v>
       </c>
       <c r="B428" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C428">
         <v>4255049</v>
@@ -36126,7 +36123,7 @@
         <v>28</v>
       </c>
       <c r="B429" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C429">
         <v>4472459</v>
@@ -36203,7 +36200,7 @@
         <v>28</v>
       </c>
       <c r="B430" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C430">
         <v>4165515</v>
@@ -36283,7 +36280,7 @@
         <v>28</v>
       </c>
       <c r="B431" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C431">
         <v>4355790</v>
@@ -36360,7 +36357,7 @@
         <v>28</v>
       </c>
       <c r="B432" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C432">
         <v>4813134</v>
@@ -36433,7 +36430,7 @@
         <v>28</v>
       </c>
       <c r="B433" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C433">
         <v>4387250</v>
@@ -36513,7 +36510,7 @@
         <v>28</v>
       </c>
       <c r="B434" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C434">
         <v>4526450</v>
@@ -36590,7 +36587,7 @@
         <v>28</v>
       </c>
       <c r="B435" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C435">
         <v>4397124</v>
@@ -36632,10 +36629,10 @@
         <v>0</v>
       </c>
       <c r="Q435" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="R435" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="T435" t="s">
         <v>38</v>
@@ -36676,7 +36673,7 @@
         <v>28</v>
       </c>
       <c r="B436" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C436">
         <v>4630773</v>
@@ -36718,10 +36715,10 @@
         <v>0.1</v>
       </c>
       <c r="Q436" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="S436" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="T436" t="s">
         <v>38</v>
@@ -36759,7 +36756,7 @@
         <v>28</v>
       </c>
       <c r="B437" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C437">
         <v>4419782</v>
@@ -36838,7 +36835,7 @@
         <v>28</v>
       </c>
       <c r="B438" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C438">
         <v>4749928</v>
@@ -36911,7 +36908,7 @@
         <v>28</v>
       </c>
       <c r="B439" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C439">
         <v>4448303</v>
@@ -36953,10 +36950,10 @@
         <v>0</v>
       </c>
       <c r="Q439" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R439" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="T439" t="s">
         <v>38</v>
@@ -36997,7 +36994,7 @@
         <v>28</v>
       </c>
       <c r="B440" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C440">
         <v>1759765</v>
@@ -37074,7 +37071,7 @@
         <v>28</v>
       </c>
       <c r="B441" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C441">
         <v>4320840</v>
@@ -37116,10 +37113,10 @@
         <v>0</v>
       </c>
       <c r="Q441" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="R441" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="T441" t="s">
         <v>38</v>
@@ -37163,7 +37160,7 @@
         <v>28</v>
       </c>
       <c r="B442" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C442">
         <v>4327758</v>
@@ -37246,7 +37243,7 @@
         <v>28</v>
       </c>
       <c r="B443" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C443">
         <v>4482102</v>
@@ -37288,10 +37285,10 @@
         <v>0.1</v>
       </c>
       <c r="Q443" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="S443" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="T443" t="s">
         <v>38</v>
@@ -37331,7 +37328,7 @@
         <v>28</v>
       </c>
       <c r="B444" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C444">
         <v>4479450</v>
@@ -37376,7 +37373,7 @@
         <v>0</v>
       </c>
       <c r="S444" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="T444" t="s">
         <v>38</v>
@@ -37416,7 +37413,7 @@
         <v>28</v>
       </c>
       <c r="B445" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C445">
         <v>5063749</v>
@@ -37428,7 +37425,7 @@
         <v>31</v>
       </c>
       <c r="F445" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G445" t="s">
         <v>32</v>
@@ -37480,7 +37477,7 @@
         <v>28</v>
       </c>
       <c r="B446" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C446">
         <v>5075382</v>
@@ -37492,7 +37489,7 @@
         <v>31</v>
       </c>
       <c r="F446" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G446" t="s">
         <v>65</v>
@@ -37540,7 +37537,7 @@
         <v>28</v>
       </c>
       <c r="B447" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C447">
         <v>4371857</v>
@@ -37623,7 +37620,7 @@
         <v>28</v>
       </c>
       <c r="B448" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C448">
         <v>4693631</v>
@@ -37635,7 +37632,7 @@
         <v>31</v>
       </c>
       <c r="F448" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G448" t="s">
         <v>45</v>
@@ -37665,7 +37662,7 @@
         <v>0</v>
       </c>
       <c r="Q448" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="T448" t="s">
         <v>38</v>
@@ -37699,7 +37696,7 @@
         <v>28</v>
       </c>
       <c r="B449" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C449">
         <v>5073033</v>
@@ -37763,7 +37760,7 @@
         <v>28</v>
       </c>
       <c r="B450" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C450">
         <v>4239624</v>
@@ -37805,7 +37802,7 @@
         <v>0</v>
       </c>
       <c r="Q450" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="T450" t="s">
         <v>38</v>
@@ -37849,7 +37846,7 @@
         <v>28</v>
       </c>
       <c r="B451" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C451">
         <v>5055239</v>
@@ -37913,7 +37910,7 @@
         <v>28</v>
       </c>
       <c r="B452" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C452">
         <v>4935287</v>
@@ -37955,10 +37952,10 @@
         <v>0</v>
       </c>
       <c r="Q452" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="R452" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="T452" t="s">
         <v>38</v>
@@ -37988,7 +37985,7 @@
         <v>28</v>
       </c>
       <c r="B453" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C453">
         <v>4010232</v>
@@ -38066,7 +38063,7 @@
         <v>28</v>
       </c>
       <c r="B454" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C454">
         <v>4214592</v>
@@ -38149,7 +38146,7 @@
         <v>28</v>
       </c>
       <c r="B455" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C455">
         <v>4334062</v>
@@ -38233,7 +38230,7 @@
         <v>28</v>
       </c>
       <c r="B456" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C456">
         <v>4749680</v>
@@ -38245,7 +38242,7 @@
         <v>31</v>
       </c>
       <c r="F456" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G456" t="s">
         <v>45</v>
@@ -38263,7 +38260,7 @@
         <v>45097</v>
       </c>
       <c r="M456" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="N456" s="2">
         <v>0.01</v>
@@ -38275,7 +38272,7 @@
         <v>0</v>
       </c>
       <c r="Q456" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R456" t="s">
         <v>454</v>
@@ -38308,7 +38305,7 @@
         <v>28</v>
       </c>
       <c r="B457" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C457">
         <v>4452946</v>
@@ -38388,7 +38385,7 @@
         <v>28</v>
       </c>
       <c r="B458" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C458">
         <v>4451725</v>
@@ -38468,7 +38465,7 @@
         <v>28</v>
       </c>
       <c r="B459" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C459">
         <v>4268684</v>
@@ -38480,7 +38477,7 @@
         <v>31</v>
       </c>
       <c r="F459" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G459" t="s">
         <v>45</v>
@@ -38551,7 +38548,7 @@
         <v>28</v>
       </c>
       <c r="B460" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C460">
         <v>4421636</v>
@@ -38563,7 +38560,7 @@
         <v>31</v>
       </c>
       <c r="F460" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G460" t="s">
         <v>32</v>
@@ -38631,7 +38628,7 @@
         <v>28</v>
       </c>
       <c r="B461" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C461">
         <v>4805133</v>
@@ -38673,7 +38670,7 @@
         <v>0</v>
       </c>
       <c r="R461" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="T461" t="s">
         <v>38</v>
@@ -38707,7 +38704,7 @@
         <v>28</v>
       </c>
       <c r="B462" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C462">
         <v>4267044</v>
@@ -38793,7 +38790,7 @@
         <v>28</v>
       </c>
       <c r="B463" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C463">
         <v>4471893</v>
@@ -38835,7 +38832,7 @@
         <v>0.1</v>
       </c>
       <c r="S463" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="T463" t="s">
         <v>38</v>
@@ -38875,7 +38872,7 @@
         <v>28</v>
       </c>
       <c r="B464" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C464">
         <v>4479429</v>
@@ -38920,10 +38917,10 @@
         <v>0</v>
       </c>
       <c r="Q464" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="S464" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="T464" t="s">
         <v>38</v>
@@ -38963,7 +38960,7 @@
         <v>28</v>
       </c>
       <c r="B465" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C465">
         <v>4503374</v>
@@ -39005,7 +39002,7 @@
         <v>0</v>
       </c>
       <c r="S465" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="T465" t="s">
         <v>38</v>
@@ -39043,7 +39040,7 @@
         <v>28</v>
       </c>
       <c r="B466" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C466">
         <v>4500057</v>
@@ -39085,7 +39082,7 @@
         <v>0</v>
       </c>
       <c r="S466" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="T466" t="s">
         <v>38</v>
@@ -39126,7 +39123,7 @@
         <v>28</v>
       </c>
       <c r="B467" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C467">
         <v>4572740</v>
@@ -39138,7 +39135,7 @@
         <v>31</v>
       </c>
       <c r="F467" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G467" t="s">
         <v>45</v>
@@ -39168,7 +39165,7 @@
         <v>0.2</v>
       </c>
       <c r="Q467" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="T467" t="s">
         <v>38</v>
@@ -39206,7 +39203,7 @@
         <v>28</v>
       </c>
       <c r="B468" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C468">
         <v>4419141</v>
@@ -39248,7 +39245,7 @@
         <v>0.1</v>
       </c>
       <c r="Q468" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="T468" t="s">
         <v>38</v>
@@ -39290,7 +39287,7 @@
         <v>28</v>
       </c>
       <c r="B469" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C469">
         <v>4644524</v>
@@ -39302,7 +39299,7 @@
         <v>31</v>
       </c>
       <c r="F469" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G469" t="s">
         <v>45</v>
@@ -39332,7 +39329,7 @@
         <v>0</v>
       </c>
       <c r="R469" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="T469" t="s">
         <v>38</v>
@@ -39370,7 +39367,7 @@
         <v>28</v>
       </c>
       <c r="B470" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C470">
         <v>4404248</v>
@@ -39450,7 +39447,7 @@
         <v>28</v>
       </c>
       <c r="B471" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C471">
         <v>2786022</v>
@@ -39533,7 +39530,7 @@
         <v>28</v>
       </c>
       <c r="B472" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C472">
         <v>5133039</v>
@@ -39545,7 +39542,7 @@
         <v>31</v>
       </c>
       <c r="F472" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G472" t="s">
         <v>65</v>
@@ -39592,7 +39589,7 @@
         <v>28</v>
       </c>
       <c r="B473" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C473">
         <v>4482439</v>
@@ -39671,7 +39668,7 @@
         <v>28</v>
       </c>
       <c r="B474" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C474">
         <v>4480336</v>
@@ -39751,7 +39748,7 @@
         <v>28</v>
       </c>
       <c r="B475" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C475">
         <v>4809902</v>
@@ -39824,7 +39821,7 @@
         <v>28</v>
       </c>
       <c r="B476" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C476">
         <v>5081833</v>
@@ -39866,7 +39863,7 @@
         <v>0</v>
       </c>
       <c r="Q476" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="T476" t="s">
         <v>38</v>
@@ -39892,7 +39889,7 @@
         <v>28</v>
       </c>
       <c r="B477" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C477">
         <v>4460491</v>
@@ -39971,7 +39968,7 @@
         <v>28</v>
       </c>
       <c r="B478" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C478">
         <v>4458624</v>
@@ -40013,7 +40010,7 @@
         <v>0</v>
       </c>
       <c r="Q478" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="T478" t="s">
         <v>38</v>
@@ -40053,7 +40050,7 @@
         <v>28</v>
       </c>
       <c r="B479" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C479">
         <v>4460487</v>
@@ -40095,7 +40092,7 @@
         <v>0</v>
       </c>
       <c r="S479" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="T479" t="s">
         <v>38</v>
@@ -40133,7 +40130,7 @@
         <v>28</v>
       </c>
       <c r="B480" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C480">
         <v>4381359</v>
@@ -40175,7 +40172,7 @@
         <v>0.1</v>
       </c>
       <c r="S480" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="T480" t="s">
         <v>38</v>
@@ -40219,7 +40216,7 @@
         <v>28</v>
       </c>
       <c r="B481" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C481">
         <v>4561369</v>
@@ -40231,7 +40228,7 @@
         <v>31</v>
       </c>
       <c r="F481" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G481" t="s">
         <v>32</v>
@@ -40261,7 +40258,7 @@
         <v>0</v>
       </c>
       <c r="Q481" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="T481" t="s">
         <v>38</v>
@@ -40291,7 +40288,7 @@
         <v>28</v>
       </c>
       <c r="B482" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C482">
         <v>4690692</v>
@@ -40303,7 +40300,7 @@
         <v>31</v>
       </c>
       <c r="F482" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G482" t="s">
         <v>45</v>
@@ -40333,7 +40330,7 @@
         <v>0.2</v>
       </c>
       <c r="Q482" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="T482" t="s">
         <v>128</v>
@@ -40369,7 +40366,7 @@
         <v>28</v>
       </c>
       <c r="B483" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C483">
         <v>4915243</v>
@@ -40438,7 +40435,7 @@
         <v>28</v>
       </c>
       <c r="B484" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C484">
         <v>4389994</v>
@@ -40480,7 +40477,7 @@
         <v>0.1</v>
       </c>
       <c r="Q484" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="T484" t="s">
         <v>38</v>
@@ -40520,7 +40517,7 @@
         <v>28</v>
       </c>
       <c r="B485" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C485">
         <v>4224771</v>
@@ -40532,7 +40529,7 @@
         <v>31</v>
       </c>
       <c r="F485" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G485" t="s">
         <v>32</v>
@@ -40604,7 +40601,7 @@
         <v>28</v>
       </c>
       <c r="B486" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C486">
         <v>4224284</v>
@@ -40687,7 +40684,7 @@
         <v>28</v>
       </c>
       <c r="B487" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C487">
         <v>4497825</v>
@@ -40764,7 +40761,7 @@
         <v>28</v>
       </c>
       <c r="B488" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C488">
         <v>4588677</v>
@@ -40841,7 +40838,7 @@
         <v>28</v>
       </c>
       <c r="B489" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C489">
         <v>4222784</v>
@@ -40883,7 +40880,7 @@
         <v>0</v>
       </c>
       <c r="Q489" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T489" t="s">
         <v>38</v>
@@ -40925,7 +40922,7 @@
         <v>28</v>
       </c>
       <c r="B490" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C490">
         <v>4500804</v>
@@ -40967,7 +40964,7 @@
         <v>0</v>
       </c>
       <c r="S490" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="T490" t="s">
         <v>38</v>
@@ -41006,7 +41003,7 @@
         <v>28</v>
       </c>
       <c r="B491" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C491">
         <v>5135281</v>
@@ -41068,7 +41065,7 @@
         <v>28</v>
       </c>
       <c r="B492" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C492">
         <v>4212409</v>
@@ -41154,7 +41151,7 @@
         <v>28</v>
       </c>
       <c r="B493" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C493">
         <v>4457389</v>
@@ -41230,7 +41227,7 @@
         <v>28</v>
       </c>
       <c r="B494" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C494">
         <v>4454365</v>
@@ -41242,7 +41239,7 @@
         <v>31</v>
       </c>
       <c r="F494" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G494" t="s">
         <v>32</v>
@@ -41307,7 +41304,7 @@
         <v>28</v>
       </c>
       <c r="B495" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C495">
         <v>2064834</v>
@@ -41385,7 +41382,7 @@
         <v>28</v>
       </c>
       <c r="B496" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C496">
         <v>5058141</v>
@@ -41427,7 +41424,7 @@
         <v>0</v>
       </c>
       <c r="Q496" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="T496" t="s">
         <v>128</v>
@@ -41450,7 +41447,7 @@
         <v>28</v>
       </c>
       <c r="B497" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C497">
         <v>4466350</v>
@@ -41492,7 +41489,7 @@
         <v>0</v>
       </c>
       <c r="S497" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="T497" t="s">
         <v>38</v>
@@ -41532,7 +41529,7 @@
         <v>28</v>
       </c>
       <c r="B498" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C498">
         <v>4879113</v>
@@ -41574,7 +41571,7 @@
         <v>0</v>
       </c>
       <c r="S498" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="T498" t="s">
         <v>128</v>
@@ -41604,7 +41601,7 @@
         <v>28</v>
       </c>
       <c r="B499" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C499">
         <v>4208733</v>
@@ -41646,7 +41643,7 @@
         <v>0</v>
       </c>
       <c r="S499" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="T499" t="s">
         <v>38</v>
@@ -41690,7 +41687,7 @@
         <v>28</v>
       </c>
       <c r="B500" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C500">
         <v>4550605</v>
@@ -41767,7 +41764,7 @@
         <v>28</v>
       </c>
       <c r="B501" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C501">
         <v>2828327</v>
@@ -41850,7 +41847,7 @@
         <v>28</v>
       </c>
       <c r="B502" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C502">
         <v>4318604</v>
@@ -41892,7 +41889,7 @@
         <v>0.1</v>
       </c>
       <c r="S502" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="T502" t="s">
         <v>38</v>
@@ -41936,7 +41933,7 @@
         <v>28</v>
       </c>
       <c r="B503" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C503">
         <v>4340984</v>
@@ -41978,7 +41975,7 @@
         <v>0.1</v>
       </c>
       <c r="Q503" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="T503" t="s">
         <v>38</v>
@@ -42022,7 +42019,7 @@
         <v>28</v>
       </c>
       <c r="B504" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C504">
         <v>4646727</v>
@@ -42034,7 +42031,7 @@
         <v>31</v>
       </c>
       <c r="F504" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G504" t="s">
         <v>45</v>
@@ -42091,7 +42088,7 @@
         <v>28</v>
       </c>
       <c r="B505" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C505">
         <v>4850070</v>
@@ -42133,7 +42130,7 @@
         <v>0</v>
       </c>
       <c r="Q505" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="T505" t="s">
         <v>38</v>
@@ -42165,7 +42162,7 @@
         <v>28</v>
       </c>
       <c r="B506" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C506">
         <v>4862677</v>
@@ -42236,7 +42233,7 @@
         <v>28</v>
       </c>
       <c r="B507" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C507">
         <v>4862672</v>
@@ -42306,7 +42303,7 @@
         <v>28</v>
       </c>
       <c r="B508" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C508">
         <v>4886366</v>
@@ -42377,7 +42374,7 @@
         <v>28</v>
       </c>
       <c r="B509" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C509">
         <v>4237325</v>
@@ -42419,7 +42416,7 @@
         <v>0.1</v>
       </c>
       <c r="Q509" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="T509" t="s">
         <v>38</v>
@@ -42463,7 +42460,7 @@
         <v>28</v>
       </c>
       <c r="B510" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C510">
         <v>4539779</v>
@@ -42538,7 +42535,7 @@
         <v>28</v>
       </c>
       <c r="B511" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C511">
         <v>4505474</v>
@@ -42613,7 +42610,7 @@
         <v>28</v>
       </c>
       <c r="B512" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C512">
         <v>4497963</v>
@@ -42691,7 +42688,7 @@
         <v>28</v>
       </c>
       <c r="B513" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C513">
         <v>4482262</v>
@@ -42768,7 +42765,7 @@
         <v>28</v>
       </c>
       <c r="B514" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C514">
         <v>4586209</v>
@@ -42780,7 +42777,7 @@
         <v>31</v>
       </c>
       <c r="F514" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G514" t="s">
         <v>45</v>
@@ -42798,7 +42795,7 @@
         <v>45124</v>
       </c>
       <c r="M514" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N514" s="2">
         <v>1.4E-2</v>
@@ -42839,7 +42836,7 @@
         <v>28</v>
       </c>
       <c r="B515" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C515">
         <v>4207658</v>
@@ -42922,7 +42919,7 @@
         <v>28</v>
       </c>
       <c r="B516" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C516">
         <v>4462543</v>
@@ -43000,7 +42997,7 @@
         <v>28</v>
       </c>
       <c r="B517" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C517">
         <v>4470679</v>
@@ -43042,7 +43039,7 @@
         <v>0</v>
       </c>
       <c r="S517" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="T517" t="s">
         <v>38</v>
@@ -43082,7 +43079,7 @@
         <v>28</v>
       </c>
       <c r="B518" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C518">
         <v>4472538</v>
@@ -43125,7 +43122,7 @@
         <v>0.1</v>
       </c>
       <c r="S518" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="T518" t="s">
         <v>38</v>
@@ -43164,7 +43161,7 @@
         <v>28</v>
       </c>
       <c r="B519" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C519">
         <v>4465646</v>
@@ -43243,7 +43240,7 @@
         <v>28</v>
       </c>
       <c r="B520" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C520">
         <v>5152037</v>
@@ -43300,7 +43297,7 @@
         <v>28</v>
       </c>
       <c r="B521" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C521">
         <v>4532856</v>
@@ -43342,7 +43339,7 @@
         <v>0</v>
       </c>
       <c r="Q521" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="T521" t="s">
         <v>38</v>
@@ -43377,7 +43374,7 @@
         <v>28</v>
       </c>
       <c r="B522" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C522">
         <v>4538384</v>
@@ -43458,7 +43455,7 @@
         <v>28</v>
       </c>
       <c r="B523" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C523">
         <v>4541149</v>
@@ -43539,7 +43536,7 @@
         <v>28</v>
       </c>
       <c r="B524" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C524">
         <v>4374891</v>
@@ -43623,7 +43620,7 @@
         <v>28</v>
       </c>
       <c r="B525" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C525">
         <v>4479734</v>
@@ -43703,7 +43700,7 @@
         <v>28</v>
       </c>
       <c r="B526" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C526">
         <v>4392159</v>
@@ -43715,7 +43712,7 @@
         <v>31</v>
       </c>
       <c r="F526" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G526" t="s">
         <v>32</v>
@@ -43783,7 +43780,7 @@
         <v>28</v>
       </c>
       <c r="B527" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C527">
         <v>1813259</v>
@@ -43855,7 +43852,7 @@
         <v>28</v>
       </c>
       <c r="B528" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C528">
         <v>4487016</v>
@@ -43935,7 +43932,7 @@
         <v>28</v>
       </c>
       <c r="B529" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C529">
         <v>4475145</v>
@@ -43978,7 +43975,7 @@
         <v>0</v>
       </c>
       <c r="S529" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="T529" t="s">
         <v>38</v>
@@ -44019,7 +44016,7 @@
         <v>28</v>
       </c>
       <c r="B530" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C530">
         <v>4805333</v>
@@ -44061,7 +44058,7 @@
         <v>0</v>
       </c>
       <c r="Q530" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="T530" t="s">
         <v>38</v>
@@ -44096,7 +44093,7 @@
         <v>28</v>
       </c>
       <c r="B531" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C531">
         <v>4392004</v>
@@ -44178,7 +44175,7 @@
         <v>28</v>
       </c>
       <c r="B532" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C532">
         <v>4924222</v>
@@ -44247,7 +44244,7 @@
         <v>28</v>
       </c>
       <c r="B533" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C533">
         <v>4413523</v>
@@ -44259,7 +44256,7 @@
         <v>31</v>
       </c>
       <c r="F533" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G533" t="s">
         <v>32</v>
@@ -44327,7 +44324,7 @@
         <v>28</v>
       </c>
       <c r="B534" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C534">
         <v>5002457</v>
@@ -44369,7 +44366,7 @@
         <v>0.1</v>
       </c>
       <c r="S534" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="T534" t="s">
         <v>38</v>
@@ -44398,7 +44395,7 @@
         <v>28</v>
       </c>
       <c r="B535" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C535">
         <v>4530494</v>
@@ -44474,7 +44471,7 @@
         <v>28</v>
       </c>
       <c r="B536" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C536">
         <v>4472076</v>
@@ -44553,7 +44550,7 @@
         <v>28</v>
       </c>
       <c r="B537" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C537">
         <v>4560107</v>
@@ -44631,7 +44628,7 @@
         <v>28</v>
       </c>
       <c r="B538" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C538">
         <v>4472760</v>
@@ -44710,7 +44707,7 @@
         <v>28</v>
       </c>
       <c r="B539" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C539">
         <v>5147664</v>
@@ -44767,7 +44764,7 @@
         <v>28</v>
       </c>
       <c r="B540" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C540">
         <v>4752494</v>
@@ -44841,7 +44838,7 @@
         <v>28</v>
       </c>
       <c r="B541" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C541">
         <v>4975924</v>
@@ -44884,7 +44881,7 @@
         <v>0.1</v>
       </c>
       <c r="Q541" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="T541" t="s">
         <v>38</v>
@@ -44914,7 +44911,7 @@
         <v>28</v>
       </c>
       <c r="B542" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C542">
         <v>4752461</v>
@@ -44988,7 +44985,7 @@
         <v>28</v>
       </c>
       <c r="B543" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C543">
         <v>4207955</v>
@@ -45071,7 +45068,7 @@
         <v>28</v>
       </c>
       <c r="B544" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C544">
         <v>4450760</v>
@@ -45150,7 +45147,7 @@
         <v>28</v>
       </c>
       <c r="B545" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C545">
         <v>4322549</v>
@@ -45162,7 +45159,7 @@
         <v>31</v>
       </c>
       <c r="F545" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G545" t="s">
         <v>45</v>
@@ -45233,7 +45230,7 @@
         <v>28</v>
       </c>
       <c r="B546" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C546">
         <v>2823185</v>
@@ -45313,7 +45310,7 @@
         <v>28</v>
       </c>
       <c r="B547" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C547">
         <v>4315417</v>
@@ -45325,7 +45322,7 @@
         <v>31</v>
       </c>
       <c r="F547" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G547" t="s">
         <v>45</v>
@@ -45393,7 +45390,7 @@
         <v>28</v>
       </c>
       <c r="B548" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C548">
         <v>4455489</v>
@@ -45435,7 +45432,7 @@
         <v>0.1</v>
       </c>
       <c r="R548" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="T548" t="s">
         <v>38</v>
@@ -45476,7 +45473,7 @@
         <v>28</v>
       </c>
       <c r="B549" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C549">
         <v>1922009</v>
@@ -45541,7 +45538,7 @@
         <v>28</v>
       </c>
       <c r="B550" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C550">
         <v>4945203</v>
@@ -45586,7 +45583,7 @@
         <v>146</v>
       </c>
       <c r="S550" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="T550" t="s">
         <v>38</v>
@@ -45616,7 +45613,7 @@
         <v>28</v>
       </c>
       <c r="B551" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C551">
         <v>4945161</v>
@@ -45658,7 +45655,7 @@
         <v>0</v>
       </c>
       <c r="S551" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="T551" t="s">
         <v>38</v>
@@ -45688,7 +45685,7 @@
         <v>28</v>
       </c>
       <c r="B552" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C552">
         <v>4999410</v>
@@ -45730,7 +45727,7 @@
         <v>0</v>
       </c>
       <c r="Q552" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="T552" t="s">
         <v>38</v>
@@ -45758,7 +45755,7 @@
         <v>28</v>
       </c>
       <c r="B553" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C553">
         <v>5007114</v>
@@ -45800,7 +45797,7 @@
         <v>0</v>
       </c>
       <c r="S553" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="T553" t="s">
         <v>38</v>
@@ -45826,7 +45823,7 @@
         <v>28</v>
       </c>
       <c r="B554" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C554">
         <v>5145205</v>
@@ -45868,7 +45865,7 @@
         <v>0</v>
       </c>
       <c r="Q554" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="T554" t="s">
         <v>38</v>
@@ -45888,7 +45885,7 @@
         <v>28</v>
       </c>
       <c r="B555" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C555">
         <v>4243043</v>
@@ -45966,7 +45963,7 @@
         <v>28</v>
       </c>
       <c r="B556" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C556">
         <v>4216401</v>
@@ -45978,7 +45975,7 @@
         <v>31</v>
       </c>
       <c r="F556" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G556" t="s">
         <v>45</v>
@@ -46047,7 +46044,7 @@
         <v>28</v>
       </c>
       <c r="B557" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C557">
         <v>4331477</v>
@@ -46130,7 +46127,7 @@
         <v>28</v>
       </c>
       <c r="B558" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C558">
         <v>4350101</v>
@@ -46142,7 +46139,7 @@
         <v>31</v>
       </c>
       <c r="F558" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H558" t="s">
         <v>74</v>
@@ -46206,7 +46203,7 @@
         <v>28</v>
       </c>
       <c r="B559" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C559">
         <v>4517080</v>
@@ -46284,7 +46281,7 @@
         <v>28</v>
       </c>
       <c r="B560" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C560">
         <v>4202332</v>
@@ -46367,7 +46364,7 @@
         <v>28</v>
       </c>
       <c r="B561" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C561">
         <v>4536602</v>
@@ -46445,7 +46442,7 @@
         <v>28</v>
       </c>
       <c r="B562" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C562">
         <v>4260040</v>
@@ -46457,7 +46454,7 @@
         <v>31</v>
       </c>
       <c r="F562" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G562" t="s">
         <v>32</v>
@@ -46534,7 +46531,7 @@
         <v>28</v>
       </c>
       <c r="B563" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C563">
         <v>1879977</v>
@@ -46620,7 +46617,7 @@
         <v>28</v>
       </c>
       <c r="B564" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C564">
         <v>4550289</v>
@@ -46700,7 +46697,7 @@
         <v>28</v>
       </c>
       <c r="B565" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C565">
         <v>4425261</v>
@@ -46780,7 +46777,7 @@
         <v>28</v>
       </c>
       <c r="B566" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C566">
         <v>4550750</v>
@@ -46792,7 +46789,7 @@
         <v>31</v>
       </c>
       <c r="F566" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G566" t="s">
         <v>32</v>
@@ -46822,7 +46819,7 @@
         <v>0</v>
       </c>
       <c r="Q566" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="T566" t="s">
         <v>38</v>
@@ -46852,7 +46849,7 @@
         <v>28</v>
       </c>
       <c r="B567" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C567">
         <v>4382374</v>
@@ -46864,7 +46861,7 @@
         <v>31</v>
       </c>
       <c r="F567" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G567" t="s">
         <v>45</v>
@@ -46930,7 +46927,7 @@
         <v>28</v>
       </c>
       <c r="B568" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C568">
         <v>3189818</v>
@@ -46942,7 +46939,7 @@
         <v>31</v>
       </c>
       <c r="F568" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G568" t="s">
         <v>32</v>
@@ -46972,7 +46969,7 @@
         <v>0</v>
       </c>
       <c r="S568" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="T568" t="s">
         <v>38</v>
@@ -47019,7 +47016,7 @@
         <v>28</v>
       </c>
       <c r="B569" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C569">
         <v>1368670</v>
@@ -47105,7 +47102,7 @@
         <v>28</v>
       </c>
       <c r="B570" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C570">
         <v>5064129</v>
@@ -47117,7 +47114,7 @@
         <v>31</v>
       </c>
       <c r="F570" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G570" t="s">
         <v>32</v>
@@ -47169,7 +47166,7 @@
         <v>28</v>
       </c>
       <c r="B571" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C571">
         <v>4381095</v>
@@ -47253,7 +47250,7 @@
         <v>28</v>
       </c>
       <c r="B572" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C572">
         <v>4224011</v>
@@ -47295,7 +47292,7 @@
         <v>0</v>
       </c>
       <c r="Q572" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="T572" t="s">
         <v>38</v>
@@ -47339,7 +47336,7 @@
         <v>28</v>
       </c>
       <c r="B573" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C573">
         <v>4346716</v>
@@ -47351,7 +47348,7 @@
         <v>31</v>
       </c>
       <c r="F573" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G573" t="s">
         <v>45</v>
@@ -47422,7 +47419,7 @@
         <v>28</v>
       </c>
       <c r="B574" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C574">
         <v>4498637</v>
@@ -47502,7 +47499,7 @@
         <v>28</v>
       </c>
       <c r="B575" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C575">
         <v>4911541</v>
@@ -47583,7 +47580,7 @@
         <v>28</v>
       </c>
       <c r="B576" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C576">
         <v>4848927</v>
@@ -47595,7 +47592,7 @@
         <v>31</v>
       </c>
       <c r="F576" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G576" t="s">
         <v>45</v>
@@ -47651,7 +47648,7 @@
         <v>28</v>
       </c>
       <c r="B577" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C577">
         <v>4238126</v>
@@ -47693,7 +47690,7 @@
         <v>0</v>
       </c>
       <c r="S577" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="T577" t="s">
         <v>128</v>
@@ -47737,19 +47734,19 @@
         <v>28</v>
       </c>
       <c r="B578" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C578">
         <v>5105172</v>
       </c>
       <c r="D578" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E578" t="s">
         <v>41</v>
       </c>
       <c r="F578" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G578" t="s">
         <v>45</v>
@@ -47796,7 +47793,7 @@
         <v>28</v>
       </c>
       <c r="B579" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C579">
         <v>4328934</v>
@@ -47838,7 +47835,7 @@
         <v>0</v>
       </c>
       <c r="Q579" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="T579" t="s">
         <v>38</v>
@@ -47882,7 +47879,7 @@
         <v>28</v>
       </c>
       <c r="B580" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C580">
         <v>4487140</v>
@@ -47962,7 +47959,7 @@
         <v>28</v>
       </c>
       <c r="B581" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C581">
         <v>4918709</v>
@@ -47974,7 +47971,7 @@
         <v>31</v>
       </c>
       <c r="F581" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G581" t="s">
         <v>45</v>
@@ -48028,7 +48025,7 @@
         <v>28</v>
       </c>
       <c r="B582" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C582">
         <v>5000090</v>
@@ -48040,7 +48037,7 @@
         <v>31</v>
       </c>
       <c r="F582" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G582" t="s">
         <v>32</v>
@@ -48087,7 +48084,7 @@
         <v>28</v>
       </c>
       <c r="B583" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C583">
         <v>4813166</v>
@@ -48129,7 +48126,7 @@
         <v>0</v>
       </c>
       <c r="Q583" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="T583" t="s">
         <v>38</v>
@@ -48166,7 +48163,7 @@
         <v>28</v>
       </c>
       <c r="B584" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C584">
         <v>5105970</v>
@@ -48208,7 +48205,7 @@
         <v>0.1</v>
       </c>
       <c r="S584" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="T584" t="s">
         <v>38</v>
@@ -48222,7 +48219,7 @@
         <v>28</v>
       </c>
       <c r="B585" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C585">
         <v>4806286</v>
@@ -48290,7 +48287,7 @@
         <v>28</v>
       </c>
       <c r="B586" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C586">
         <v>5009947</v>
@@ -48349,7 +48346,7 @@
         <v>28</v>
       </c>
       <c r="B587" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C587">
         <v>3115072</v>
@@ -48423,7 +48420,7 @@
         <v>28</v>
       </c>
       <c r="B588" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C588">
         <v>4400000</v>
@@ -48435,7 +48432,7 @@
         <v>41</v>
       </c>
       <c r="F588" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H588" t="s">
         <v>74</v>
@@ -48500,7 +48497,7 @@
         <v>28</v>
       </c>
       <c r="B589" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C589">
         <v>4967702</v>
@@ -48562,7 +48559,7 @@
         <v>28</v>
       </c>
       <c r="B590" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C590">
         <v>4360430</v>
@@ -48645,7 +48642,7 @@
         <v>28</v>
       </c>
       <c r="B591" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C591">
         <v>2694089</v>
@@ -48728,7 +48725,7 @@
         <v>28</v>
       </c>
       <c r="B592" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C592">
         <v>1294033</v>
@@ -48793,7 +48790,7 @@
         <v>28</v>
       </c>
       <c r="B593" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C593">
         <v>1804114</v>
@@ -48873,19 +48870,19 @@
         <v>28</v>
       </c>
       <c r="B594" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C594">
         <v>5103059</v>
       </c>
       <c r="D594" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E594" t="s">
         <v>41</v>
       </c>
       <c r="F594" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="G594" t="s">
         <v>32</v>
@@ -48926,7 +48923,7 @@
         <v>28</v>
       </c>
       <c r="B595" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C595">
         <v>4462930</v>
@@ -48968,7 +48965,7 @@
         <v>0.2</v>
       </c>
       <c r="Q595" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="T595" t="s">
         <v>38</v>
@@ -49006,7 +49003,7 @@
         <v>28</v>
       </c>
       <c r="B596" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C596">
         <v>4466221</v>
@@ -49048,7 +49045,7 @@
         <v>0.1</v>
       </c>
       <c r="Q596" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="T596" t="s">
         <v>38</v>
@@ -49086,7 +49083,7 @@
         <v>28</v>
       </c>
       <c r="B597" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C597">
         <v>4419765</v>
@@ -49128,7 +49125,7 @@
         <v>0</v>
       </c>
       <c r="Q597" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="T597" t="s">
         <v>38</v>
@@ -49166,7 +49163,7 @@
         <v>28</v>
       </c>
       <c r="B598" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C598">
         <v>4216504</v>
@@ -49208,7 +49205,7 @@
         <v>0</v>
       </c>
       <c r="S598" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="T598" t="s">
         <v>38</v>
@@ -49252,7 +49249,7 @@
         <v>28</v>
       </c>
       <c r="B599" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C599">
         <v>4422594</v>
@@ -49294,7 +49291,7 @@
         <v>0</v>
       </c>
       <c r="Q599" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="T599" t="s">
         <v>38</v>
@@ -49335,7 +49332,7 @@
         <v>28</v>
       </c>
       <c r="B600" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C600">
         <v>4981655</v>
@@ -49394,7 +49391,7 @@
         <v>28</v>
       </c>
       <c r="B601" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C601">
         <v>2886520</v>
@@ -49468,7 +49465,7 @@
         <v>28</v>
       </c>
       <c r="B602" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C602">
         <v>4388077</v>
@@ -49548,7 +49545,7 @@
         <v>28</v>
       </c>
       <c r="B603" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C603">
         <v>4223226</v>
@@ -49634,7 +49631,7 @@
         <v>28</v>
       </c>
       <c r="B604" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C604">
         <v>4552944</v>
@@ -49676,7 +49673,7 @@
         <v>0</v>
       </c>
       <c r="S604" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="T604" t="s">
         <v>38</v>
@@ -49708,7 +49705,7 @@
     </row>
     <row r="606" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B606" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C606">
         <v>493</v>
@@ -49758,7 +49755,7 @@
     </row>
     <row r="607" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B607" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C607">
         <v>56</v>
@@ -49766,7 +49763,7 @@
     </row>
     <row r="608" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B608" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C608">
         <v>24</v>
@@ -49774,7 +49771,7 @@
     </row>
     <row r="609" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B609" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C609">
         <v>29</v>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1FEEC2A-5763-40CF-9689-F8B2CBADA0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0355C91E-872F-4877-90AE-2E252F646EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{43EC9CCB-5AB2-4A26-BEFA-CD574714A96E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20F1DA4D-313C-486C-9367-A61A26013967}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7639" uniqueCount="909">
   <si>
     <t>Backoffice</t>
   </si>
@@ -698,6 +698,9 @@
     <t>Carollina Pedrosa Vieira Lima</t>
   </si>
   <si>
+    <t>Aplicar R$ 1100,00 no fundo Selic BTG</t>
+  </si>
+  <si>
     <t>Cassio Kaminagakura</t>
   </si>
   <si>
@@ -758,10 +761,7 @@
     <t>Cintia Taís Polizer Zanin</t>
   </si>
   <si>
-    <t xml:space="preserve">Esta em mudança de carteira  </t>
-  </si>
-  <si>
-    <t>Início da STVM da GUIDE dia 16/08/2023 e concluída 13/09/2023</t>
+    <t>Início da STVM da GUIDE dia 16/08/2023 e concluída 13/09/2023 / Alt de carteira finalizada dia 22/12/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Cintia Uchida Rodrigues     </t>
@@ -2285,6 +2285,9 @@
   </si>
   <si>
     <t>Pedro Afonso Rezende Posso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alteração de carteita </t>
   </si>
   <si>
     <t>Pedro Augusto Prado Miranda</t>
@@ -3122,11 +3125,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7848ECE2-9B03-4763-AE5C-4FE485517593}">
-  <dimension ref="A1:AK613"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC25915-F8DB-4785-92E3-2B99901B5D77}">
+  <dimension ref="A1:AK614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AK613"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10177,7 +10180,7 @@
         <v>36</v>
       </c>
       <c r="J97" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K97" s="1">
         <v>44993</v>
@@ -10194,6 +10197,9 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
+      <c r="Q97" t="s">
+        <v>220</v>
+      </c>
       <c r="T97" t="s">
         <v>40</v>
       </c>
@@ -10230,7 +10236,7 @@
         <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C98">
         <v>4508526</v>
@@ -10272,7 +10278,7 @@
         <v>0.1</v>
       </c>
       <c r="S98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T98" t="s">
         <v>40</v>
@@ -10307,7 +10313,7 @@
         <v>29</v>
       </c>
       <c r="B99" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C99">
         <v>4751154</v>
@@ -10375,7 +10381,7 @@
         <v>29</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C100">
         <v>4693349</v>
@@ -10443,7 +10449,7 @@
         <v>29</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C101">
         <v>5140580</v>
@@ -10496,7 +10502,7 @@
         <v>29</v>
       </c>
       <c r="B102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C102">
         <v>4974089</v>
@@ -10555,7 +10561,7 @@
         <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C103">
         <v>4332544</v>
@@ -10564,10 +10570,10 @@
         <v>42</v>
       </c>
       <c r="E103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -10638,7 +10644,7 @@
         <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C104">
         <v>4207278</v>
@@ -10721,7 +10727,7 @@
         <v>29</v>
       </c>
       <c r="B105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C105">
         <v>4570869</v>
@@ -10766,7 +10772,7 @@
         <v>0</v>
       </c>
       <c r="S105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T105" t="s">
         <v>40</v>
@@ -10801,7 +10807,7 @@
         <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C106">
         <v>4862746</v>
@@ -10843,7 +10849,7 @@
         <v>0.1</v>
       </c>
       <c r="Q106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="T106" t="s">
         <v>40</v>
@@ -10869,7 +10875,7 @@
         <v>29</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C107">
         <v>4482090</v>
@@ -10946,7 +10952,7 @@
         <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C108">
         <v>4479395</v>
@@ -11029,7 +11035,7 @@
         <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C109">
         <v>4420763</v>
@@ -11071,10 +11077,10 @@
         <v>0.1</v>
       </c>
       <c r="Q109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T109" t="s">
         <v>40</v>
@@ -11112,7 +11118,7 @@
         <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C110">
         <v>4581652</v>
@@ -11186,7 +11192,7 @@
         <v>29</v>
       </c>
       <c r="B111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C111">
         <v>4862804</v>
@@ -11251,7 +11257,7 @@
         <v>29</v>
       </c>
       <c r="B112" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C112">
         <v>4927044</v>
@@ -11269,31 +11275,28 @@
         <v>50</v>
       </c>
       <c r="H112" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I112" t="s">
         <v>36</v>
       </c>
       <c r="J112" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K112" s="1">
         <v>45149</v>
       </c>
       <c r="M112" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N112" s="2">
         <v>1.2E-2</v>
       </c>
       <c r="O112" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P112" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>240</v>
+        <v>0.1</v>
       </c>
       <c r="S112" t="s">
         <v>241</v>
@@ -16076,10 +16079,10 @@
         <v>42</v>
       </c>
       <c r="E177" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F177" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G177" t="s">
         <v>34</v>
@@ -20744,7 +20747,7 @@
         <v>29</v>
       </c>
       <c r="B243" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C243">
         <v>2878817</v>
@@ -20753,10 +20756,10 @@
         <v>42</v>
       </c>
       <c r="E243" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F243" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G243" t="s">
         <v>34</v>
@@ -20836,10 +20839,10 @@
         <v>42</v>
       </c>
       <c r="E244" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F244" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G244" t="s">
         <v>34</v>
@@ -25041,10 +25044,10 @@
         <v>42</v>
       </c>
       <c r="E299" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F299" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G299" t="s">
         <v>47</v>
@@ -30681,10 +30684,10 @@
         <v>42</v>
       </c>
       <c r="E374" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F374" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G374" t="s">
         <v>34</v>
@@ -38654,13 +38657,13 @@
         <v>50</v>
       </c>
       <c r="H480" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I480" t="s">
         <v>36</v>
       </c>
       <c r="J480" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K480" s="1">
         <v>45111</v>
@@ -38677,6 +38680,9 @@
       <c r="P480" s="3">
         <v>0.2</v>
       </c>
+      <c r="Q480" t="s">
+        <v>749</v>
+      </c>
       <c r="T480" t="s">
         <v>40</v>
       </c>
@@ -38790,7 +38796,7 @@
         <v>29</v>
       </c>
       <c r="B482" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C482">
         <v>4809902</v>
@@ -38858,7 +38864,7 @@
         <v>29</v>
       </c>
       <c r="B483" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C483">
         <v>5081833</v>
@@ -38900,7 +38906,7 @@
         <v>0</v>
       </c>
       <c r="Q483" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="T483" t="s">
         <v>40</v>
@@ -38917,7 +38923,7 @@
         <v>29</v>
       </c>
       <c r="B484" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C484">
         <v>4460491</v>
@@ -38994,7 +39000,7 @@
         <v>29</v>
       </c>
       <c r="B485" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C485">
         <v>4458624</v>
@@ -39036,7 +39042,7 @@
         <v>0</v>
       </c>
       <c r="Q485" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="T485" t="s">
         <v>40</v>
@@ -39074,7 +39080,7 @@
         <v>29</v>
       </c>
       <c r="B486" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C486">
         <v>4460487</v>
@@ -39116,7 +39122,7 @@
         <v>0</v>
       </c>
       <c r="S486" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="T486" t="s">
         <v>40</v>
@@ -39154,7 +39160,7 @@
         <v>29</v>
       </c>
       <c r="B487" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C487">
         <v>4381359</v>
@@ -39196,7 +39202,7 @@
         <v>0.1</v>
       </c>
       <c r="S487" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="T487" t="s">
         <v>40</v>
@@ -39240,7 +39246,7 @@
         <v>29</v>
       </c>
       <c r="B488" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C488">
         <v>4561369</v>
@@ -39282,7 +39288,7 @@
         <v>0</v>
       </c>
       <c r="Q488" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="T488" t="s">
         <v>40</v>
@@ -39305,7 +39311,7 @@
         <v>29</v>
       </c>
       <c r="B489" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C489">
         <v>4690692</v>
@@ -39347,7 +39353,7 @@
         <v>0.2</v>
       </c>
       <c r="Q489" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="T489" t="s">
         <v>148</v>
@@ -39382,7 +39388,7 @@
         <v>29</v>
       </c>
       <c r="B490" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C490">
         <v>4915243</v>
@@ -39444,7 +39450,7 @@
         <v>29</v>
       </c>
       <c r="B491" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C491">
         <v>4389994</v>
@@ -39524,7 +39530,7 @@
         <v>29</v>
       </c>
       <c r="B492" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C492">
         <v>4224771</v>
@@ -39607,7 +39613,7 @@
         <v>29</v>
       </c>
       <c r="B493" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C493">
         <v>4224284</v>
@@ -39690,7 +39696,7 @@
         <v>29</v>
       </c>
       <c r="B494" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C494">
         <v>4497825</v>
@@ -39767,7 +39773,7 @@
         <v>29</v>
       </c>
       <c r="B495" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C495">
         <v>4588677</v>
@@ -39841,7 +39847,7 @@
         <v>29</v>
       </c>
       <c r="B496" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C496">
         <v>4222784</v>
@@ -39883,7 +39889,7 @@
         <v>0</v>
       </c>
       <c r="Q496" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="T496" t="s">
         <v>40</v>
@@ -39924,7 +39930,7 @@
         <v>29</v>
       </c>
       <c r="B497" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C497">
         <v>4500804</v>
@@ -39966,7 +39972,7 @@
         <v>0</v>
       </c>
       <c r="S497" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="T497" t="s">
         <v>40</v>
@@ -40004,7 +40010,7 @@
         <v>29</v>
       </c>
       <c r="B498" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C498">
         <v>5135281</v>
@@ -40057,7 +40063,7 @@
         <v>29</v>
       </c>
       <c r="B499" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C499">
         <v>4212409</v>
@@ -40143,7 +40149,7 @@
         <v>29</v>
       </c>
       <c r="B500" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C500">
         <v>4457389</v>
@@ -40217,7 +40223,7 @@
         <v>29</v>
       </c>
       <c r="B501" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C501">
         <v>4454365</v>
@@ -40229,7 +40235,7 @@
         <v>32</v>
       </c>
       <c r="F501" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G501" t="s">
         <v>34</v>
@@ -40294,7 +40300,7 @@
         <v>29</v>
       </c>
       <c r="B502" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C502">
         <v>2064834</v>
@@ -40371,7 +40377,7 @@
         <v>29</v>
       </c>
       <c r="B503" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C503">
         <v>5058141</v>
@@ -40430,7 +40436,7 @@
         <v>29</v>
       </c>
       <c r="B504" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C504">
         <v>4466350</v>
@@ -40472,7 +40478,7 @@
         <v>0</v>
       </c>
       <c r="S504" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="T504" t="s">
         <v>40</v>
@@ -40510,7 +40516,7 @@
         <v>29</v>
       </c>
       <c r="B505" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C505">
         <v>4879113</v>
@@ -40552,7 +40558,7 @@
         <v>0</v>
       </c>
       <c r="S505" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="T505" t="s">
         <v>148</v>
@@ -40578,7 +40584,7 @@
         <v>29</v>
       </c>
       <c r="B506" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C506">
         <v>4208733</v>
@@ -40620,7 +40626,7 @@
         <v>0</v>
       </c>
       <c r="S506" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="T506" t="s">
         <v>40</v>
@@ -40664,7 +40670,7 @@
         <v>29</v>
       </c>
       <c r="B507" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C507">
         <v>4550605</v>
@@ -40741,7 +40747,7 @@
         <v>29</v>
       </c>
       <c r="B508" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C508">
         <v>2828327</v>
@@ -40824,7 +40830,7 @@
         <v>29</v>
       </c>
       <c r="B509" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C509">
         <v>4318604</v>
@@ -40866,7 +40872,7 @@
         <v>0.1</v>
       </c>
       <c r="S509" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="T509" t="s">
         <v>40</v>
@@ -40910,7 +40916,7 @@
         <v>29</v>
       </c>
       <c r="B510" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C510">
         <v>4340984</v>
@@ -40952,7 +40958,7 @@
         <v>0.1</v>
       </c>
       <c r="Q510" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="T510" t="s">
         <v>40</v>
@@ -40996,7 +41002,7 @@
         <v>29</v>
       </c>
       <c r="B511" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C511">
         <v>4646727</v>
@@ -41058,7 +41064,7 @@
         <v>29</v>
       </c>
       <c r="B512" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C512">
         <v>4850070</v>
@@ -41100,7 +41106,7 @@
         <v>0</v>
       </c>
       <c r="Q512" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="T512" t="s">
         <v>40</v>
@@ -41126,7 +41132,7 @@
         <v>29</v>
       </c>
       <c r="B513" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C513">
         <v>4862677</v>
@@ -41191,7 +41197,7 @@
         <v>29</v>
       </c>
       <c r="B514" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C514">
         <v>4862672</v>
@@ -41256,7 +41262,7 @@
         <v>29</v>
       </c>
       <c r="B515" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C515">
         <v>4886366</v>
@@ -41321,7 +41327,7 @@
         <v>29</v>
       </c>
       <c r="B516" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C516">
         <v>4237325</v>
@@ -41363,7 +41369,7 @@
         <v>0.1</v>
       </c>
       <c r="Q516" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="T516" t="s">
         <v>40</v>
@@ -41407,7 +41413,7 @@
         <v>29</v>
       </c>
       <c r="B517" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C517">
         <v>4539779</v>
@@ -41481,7 +41487,7 @@
         <v>29</v>
       </c>
       <c r="B518" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C518">
         <v>4505474</v>
@@ -41555,7 +41561,7 @@
         <v>29</v>
       </c>
       <c r="B519" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C519">
         <v>4497963</v>
@@ -41632,7 +41638,7 @@
         <v>29</v>
       </c>
       <c r="B520" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C520">
         <v>4482262</v>
@@ -41709,7 +41715,7 @@
         <v>29</v>
       </c>
       <c r="B521" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C521">
         <v>4586209</v>
@@ -41739,7 +41745,7 @@
         <v>45124</v>
       </c>
       <c r="M521" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="N521" s="2">
         <v>1.4E-2</v>
@@ -41777,7 +41783,7 @@
         <v>29</v>
       </c>
       <c r="B522" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C522">
         <v>4207658</v>
@@ -41860,7 +41866,7 @@
         <v>29</v>
       </c>
       <c r="B523" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C523">
         <v>4462543</v>
@@ -41937,7 +41943,7 @@
         <v>29</v>
       </c>
       <c r="B524" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C524">
         <v>4470679</v>
@@ -41979,7 +41985,7 @@
         <v>0</v>
       </c>
       <c r="S524" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="T524" t="s">
         <v>40</v>
@@ -42017,7 +42023,7 @@
         <v>29</v>
       </c>
       <c r="B525" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C525">
         <v>4472538</v>
@@ -42059,7 +42065,7 @@
         <v>0.1</v>
       </c>
       <c r="S525" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="T525" t="s">
         <v>40</v>
@@ -42097,7 +42103,7 @@
         <v>29</v>
       </c>
       <c r="B526" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C526">
         <v>4465646</v>
@@ -42174,7 +42180,7 @@
         <v>29</v>
       </c>
       <c r="B527" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C527">
         <v>5152037</v>
@@ -42221,7 +42227,7 @@
         <v>29</v>
       </c>
       <c r="B528" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C528">
         <v>4532856</v>
@@ -42263,7 +42269,7 @@
         <v>0</v>
       </c>
       <c r="Q528" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="T528" t="s">
         <v>40</v>
@@ -42298,7 +42304,7 @@
         <v>29</v>
       </c>
       <c r="B529" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C529">
         <v>4538384</v>
@@ -42375,7 +42381,7 @@
         <v>29</v>
       </c>
       <c r="B530" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C530">
         <v>4541149</v>
@@ -42452,7 +42458,7 @@
         <v>29</v>
       </c>
       <c r="B531" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C531">
         <v>4374891</v>
@@ -42535,7 +42541,7 @@
         <v>29</v>
       </c>
       <c r="B532" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C532">
         <v>4479734</v>
@@ -42612,7 +42618,7 @@
         <v>29</v>
       </c>
       <c r="B533" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C533">
         <v>5142624</v>
@@ -42665,7 +42671,7 @@
         <v>29</v>
       </c>
       <c r="B534" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C534">
         <v>4392159</v>
@@ -42677,7 +42683,7 @@
         <v>32</v>
       </c>
       <c r="F534" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G534" t="s">
         <v>34</v>
@@ -42745,7 +42751,7 @@
         <v>29</v>
       </c>
       <c r="B535" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C535">
         <v>1813259</v>
@@ -42813,7 +42819,7 @@
         <v>29</v>
       </c>
       <c r="B536" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C536">
         <v>4487016</v>
@@ -42890,7 +42896,7 @@
         <v>29</v>
       </c>
       <c r="B537" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C537">
         <v>4475145</v>
@@ -42932,7 +42938,7 @@
         <v>0</v>
       </c>
       <c r="S537" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="T537" t="s">
         <v>40</v>
@@ -42970,7 +42976,7 @@
         <v>29</v>
       </c>
       <c r="B538" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C538">
         <v>4805333</v>
@@ -43012,7 +43018,7 @@
         <v>0</v>
       </c>
       <c r="Q538" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="T538" t="s">
         <v>40</v>
@@ -43041,7 +43047,7 @@
         <v>29</v>
       </c>
       <c r="B539" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C539">
         <v>4392004</v>
@@ -43121,7 +43127,7 @@
         <v>29</v>
       </c>
       <c r="B540" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C540">
         <v>4924222</v>
@@ -43183,7 +43189,7 @@
         <v>29</v>
       </c>
       <c r="B541" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C541">
         <v>4413523</v>
@@ -43260,7 +43266,7 @@
         <v>29</v>
       </c>
       <c r="B542" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C542">
         <v>5002457</v>
@@ -43302,7 +43308,7 @@
         <v>0.1</v>
       </c>
       <c r="S542" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="T542" t="s">
         <v>40</v>
@@ -43322,7 +43328,7 @@
         <v>29</v>
       </c>
       <c r="B543" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C543">
         <v>4530494</v>
@@ -43396,7 +43402,7 @@
         <v>29</v>
       </c>
       <c r="B544" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C544">
         <v>4472076</v>
@@ -43473,7 +43479,7 @@
         <v>29</v>
       </c>
       <c r="B545" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C545">
         <v>5142661</v>
@@ -43526,7 +43532,7 @@
         <v>29</v>
       </c>
       <c r="B546" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C546">
         <v>4560107</v>
@@ -43600,7 +43606,7 @@
         <v>29</v>
       </c>
       <c r="B547" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C547">
         <v>4472760</v>
@@ -43677,7 +43683,7 @@
         <v>29</v>
       </c>
       <c r="B548" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C548">
         <v>5147664</v>
@@ -43724,7 +43730,7 @@
         <v>29</v>
       </c>
       <c r="B549" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C549">
         <v>4752494</v>
@@ -43792,7 +43798,7 @@
         <v>29</v>
       </c>
       <c r="B550" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C550">
         <v>4975924</v>
@@ -43834,7 +43840,7 @@
         <v>0.1</v>
       </c>
       <c r="Q550" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="T550" t="s">
         <v>40</v>
@@ -43857,7 +43863,7 @@
         <v>29</v>
       </c>
       <c r="B551" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C551">
         <v>4752461</v>
@@ -43925,7 +43931,7 @@
         <v>29</v>
       </c>
       <c r="B552" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C552">
         <v>4207955</v>
@@ -44008,7 +44014,7 @@
         <v>29</v>
       </c>
       <c r="B553" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C553">
         <v>4450760</v>
@@ -44085,7 +44091,7 @@
         <v>29</v>
       </c>
       <c r="B554" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C554">
         <v>4322549</v>
@@ -44168,7 +44174,7 @@
         <v>29</v>
       </c>
       <c r="B555" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C555">
         <v>2823185</v>
@@ -44248,7 +44254,7 @@
         <v>29</v>
       </c>
       <c r="B556" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C556">
         <v>4315417</v>
@@ -44325,7 +44331,7 @@
         <v>29</v>
       </c>
       <c r="B557" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C557">
         <v>4455489</v>
@@ -44367,7 +44373,7 @@
         <v>0.1</v>
       </c>
       <c r="R557" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="T557" t="s">
         <v>40</v>
@@ -44405,7 +44411,7 @@
         <v>29</v>
       </c>
       <c r="B558" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C558">
         <v>1922009</v>
@@ -44461,7 +44467,7 @@
         <v>29</v>
       </c>
       <c r="B559" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C559">
         <v>4945203</v>
@@ -44506,7 +44512,7 @@
         <v>166</v>
       </c>
       <c r="S559" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="T559" t="s">
         <v>40</v>
@@ -44529,7 +44535,7 @@
         <v>29</v>
       </c>
       <c r="B560" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C560">
         <v>4945161</v>
@@ -44571,7 +44577,7 @@
         <v>0</v>
       </c>
       <c r="S560" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="T560" t="s">
         <v>40</v>
@@ -44594,7 +44600,7 @@
         <v>29</v>
       </c>
       <c r="B561" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C561">
         <v>4999410</v>
@@ -44636,7 +44642,7 @@
         <v>0</v>
       </c>
       <c r="Q561" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="T561" t="s">
         <v>40</v>
@@ -44656,7 +44662,7 @@
         <v>29</v>
       </c>
       <c r="B562" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C562">
         <v>5007114</v>
@@ -44698,7 +44704,7 @@
         <v>0</v>
       </c>
       <c r="S562" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="T562" t="s">
         <v>40</v>
@@ -44718,7 +44724,7 @@
         <v>29</v>
       </c>
       <c r="B563" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C563">
         <v>5145205</v>
@@ -44760,7 +44766,7 @@
         <v>0</v>
       </c>
       <c r="Q563" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="T563" t="s">
         <v>40</v>
@@ -44771,7 +44777,7 @@
         <v>29</v>
       </c>
       <c r="B564" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C564">
         <v>4243043</v>
@@ -44848,7 +44854,7 @@
         <v>29</v>
       </c>
       <c r="B565" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C565">
         <v>4216401</v>
@@ -44928,7 +44934,7 @@
         <v>29</v>
       </c>
       <c r="B566" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C566">
         <v>4331477</v>
@@ -45011,7 +45017,7 @@
         <v>29</v>
       </c>
       <c r="B567" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C567">
         <v>4350101</v>
@@ -45085,7 +45091,7 @@
         <v>29</v>
       </c>
       <c r="B568" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C568">
         <v>4517080</v>
@@ -45159,7 +45165,7 @@
         <v>29</v>
       </c>
       <c r="B569" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C569">
         <v>4202332</v>
@@ -45242,7 +45248,7 @@
         <v>29</v>
       </c>
       <c r="B570" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C570">
         <v>4536602</v>
@@ -45316,7 +45322,7 @@
         <v>29</v>
       </c>
       <c r="B571" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C571">
         <v>4260040</v>
@@ -45402,7 +45408,7 @@
         <v>29</v>
       </c>
       <c r="B572" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C572">
         <v>1879977</v>
@@ -45488,7 +45494,7 @@
         <v>29</v>
       </c>
       <c r="B573" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C573">
         <v>4550289</v>
@@ -45562,7 +45568,7 @@
         <v>29</v>
       </c>
       <c r="B574" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C574">
         <v>4425261</v>
@@ -45684,7 +45690,7 @@
         <v>0</v>
       </c>
       <c r="Q575" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="T575" t="s">
         <v>40</v>
@@ -45707,7 +45713,7 @@
         <v>29</v>
       </c>
       <c r="B576" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C576">
         <v>4382374</v>
@@ -45784,7 +45790,7 @@
         <v>29</v>
       </c>
       <c r="B577" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C577">
         <v>3189818</v>
@@ -45826,7 +45832,7 @@
         <v>0</v>
       </c>
       <c r="S577" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="T577" t="s">
         <v>40</v>
@@ -45873,7 +45879,7 @@
         <v>29</v>
       </c>
       <c r="B578" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C578">
         <v>1368670</v>
@@ -45959,7 +45965,7 @@
         <v>29</v>
       </c>
       <c r="B579" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C579">
         <v>5064129</v>
@@ -46015,7 +46021,7 @@
         <v>29</v>
       </c>
       <c r="B580" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C580">
         <v>4381095</v>
@@ -46098,7 +46104,7 @@
         <v>29</v>
       </c>
       <c r="B581" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C581">
         <v>4224011</v>
@@ -46140,7 +46146,7 @@
         <v>0</v>
       </c>
       <c r="Q581" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="T581" t="s">
         <v>40</v>
@@ -46184,7 +46190,7 @@
         <v>29</v>
       </c>
       <c r="B582" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C582">
         <v>4346716</v>
@@ -46267,7 +46273,7 @@
         <v>29</v>
       </c>
       <c r="B583" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C583">
         <v>4498637</v>
@@ -46341,7 +46347,7 @@
         <v>29</v>
       </c>
       <c r="B584" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C584">
         <v>4911541</v>
@@ -46421,7 +46427,7 @@
         <v>29</v>
       </c>
       <c r="B585" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C585">
         <v>4848927</v>
@@ -46483,7 +46489,7 @@
         <v>29</v>
       </c>
       <c r="B586" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C586">
         <v>4238126</v>
@@ -46525,7 +46531,7 @@
         <v>0</v>
       </c>
       <c r="S586" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="T586" t="s">
         <v>148</v>
@@ -46569,7 +46575,7 @@
         <v>29</v>
       </c>
       <c r="B587" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C587">
         <v>5105172</v>
@@ -46622,7 +46628,7 @@
         <v>29</v>
       </c>
       <c r="B588" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C588">
         <v>4328934</v>
@@ -46664,7 +46670,7 @@
         <v>0</v>
       </c>
       <c r="Q588" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="T588" t="s">
         <v>40</v>
@@ -46708,7 +46714,7 @@
         <v>29</v>
       </c>
       <c r="B589" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C589">
         <v>4487140</v>
@@ -46785,7 +46791,7 @@
         <v>29</v>
       </c>
       <c r="B590" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C590">
         <v>4918709</v>
@@ -46847,7 +46853,7 @@
         <v>29</v>
       </c>
       <c r="B591" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C591">
         <v>5000090</v>
@@ -46906,7 +46912,7 @@
         <v>29</v>
       </c>
       <c r="B592" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C592">
         <v>4813166</v>
@@ -46948,7 +46954,7 @@
         <v>0</v>
       </c>
       <c r="Q592" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="T592" t="s">
         <v>40</v>
@@ -46977,10 +46983,10 @@
         <v>29</v>
       </c>
       <c r="B593" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C593">
-        <v>5105970</v>
+        <v>5173958</v>
       </c>
       <c r="D593" t="s">
         <v>42</v>
@@ -46989,7 +46995,7 @@
         <v>43</v>
       </c>
       <c r="F593" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="G593" t="s">
         <v>34</v>
@@ -46997,35 +47003,26 @@
       <c r="H593" t="s">
         <v>97</v>
       </c>
-      <c r="I593" t="s">
-        <v>75</v>
-      </c>
       <c r="J593" t="s">
         <v>37</v>
       </c>
       <c r="K593" s="1">
-        <v>45246</v>
+        <v>45282</v>
       </c>
       <c r="M593" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="N593" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O593" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P593" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="S593" t="s">
-        <v>884</v>
+        <v>0</v>
       </c>
       <c r="T593" t="s">
         <v>40</v>
-      </c>
-      <c r="AK593" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:37" x14ac:dyDescent="0.25">
@@ -47033,67 +47030,55 @@
         <v>29</v>
       </c>
       <c r="B594" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C594">
-        <v>4806286</v>
+        <v>5105970</v>
       </c>
       <c r="D594" t="s">
         <v>42</v>
       </c>
       <c r="E594" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F594" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G594" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H594" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="I594" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="J594" t="s">
         <v>37</v>
       </c>
       <c r="K594" s="1">
-        <v>45163</v>
+        <v>45246</v>
       </c>
       <c r="M594" t="s">
-        <v>305</v>
+        <v>52</v>
       </c>
       <c r="N594" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O594" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P594" s="3">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="S594" t="s">
+        <v>885</v>
       </c>
       <c r="T594" t="s">
         <v>40</v>
       </c>
-      <c r="AF594" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG594" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH594" s="4">
-        <v>232512.44</v>
-      </c>
-      <c r="AI594" s="4">
-        <v>234923.98</v>
-      </c>
-      <c r="AJ594" s="4">
-        <v>237389.47</v>
-      </c>
       <c r="AK594" s="4">
-        <v>239009.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:37" x14ac:dyDescent="0.25">
@@ -47104,7 +47089,7 @@
         <v>886</v>
       </c>
       <c r="C595">
-        <v>5009947</v>
+        <v>4806286</v>
       </c>
       <c r="D595" t="s">
         <v>42</v>
@@ -47113,10 +47098,10 @@
         <v>70</v>
       </c>
       <c r="F595" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G595" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H595" t="s">
         <v>35</v>
@@ -47128,13 +47113,13 @@
         <v>37</v>
       </c>
       <c r="K595" s="1">
-        <v>45190</v>
+        <v>45163</v>
       </c>
       <c r="M595" t="s">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="N595" s="2">
-        <v>1.2E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O595" t="s">
         <v>36</v>
@@ -47145,14 +47130,23 @@
       <c r="T595" t="s">
         <v>40</v>
       </c>
+      <c r="AF595" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG595" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH595" s="4">
+        <v>232512.44</v>
+      </c>
       <c r="AI595" s="4">
-        <v>50021.25</v>
+        <v>234923.98</v>
       </c>
       <c r="AJ595" s="4">
-        <v>450886.23</v>
+        <v>237389.47</v>
       </c>
       <c r="AK595" s="4">
-        <v>454556.5</v>
+        <v>239009.45</v>
       </c>
     </row>
     <row r="596" spans="1:37" x14ac:dyDescent="0.25">
@@ -47163,19 +47157,19 @@
         <v>887</v>
       </c>
       <c r="C596">
-        <v>3115072</v>
+        <v>5009947</v>
       </c>
       <c r="D596" t="s">
         <v>42</v>
       </c>
       <c r="E596" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F596" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G596" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H596" t="s">
         <v>35</v>
@@ -47187,46 +47181,31 @@
         <v>37</v>
       </c>
       <c r="K596" s="1">
-        <v>45042</v>
+        <v>45190</v>
       </c>
       <c r="M596" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N596" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O596" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P596" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T596" t="s">
         <v>40</v>
       </c>
-      <c r="AD596" s="4">
-        <v>112366.37</v>
-      </c>
-      <c r="AE596" s="4">
-        <v>113918.96</v>
-      </c>
-      <c r="AF596" s="4">
-        <v>200612.93</v>
-      </c>
-      <c r="AG596" s="4">
-        <v>282738</v>
-      </c>
-      <c r="AH596" s="4">
-        <v>231160.19</v>
-      </c>
       <c r="AI596" s="4">
-        <v>181973.47</v>
+        <v>50021.25</v>
       </c>
       <c r="AJ596" s="4">
-        <v>181576.12</v>
+        <v>450886.23</v>
       </c>
       <c r="AK596" s="4">
-        <v>134747.78</v>
+        <v>454556.5</v>
       </c>
     </row>
     <row r="597" spans="1:37" x14ac:dyDescent="0.25">
@@ -47237,19 +47216,22 @@
         <v>888</v>
       </c>
       <c r="C597">
-        <v>4400000</v>
+        <v>3115072</v>
       </c>
       <c r="D597" t="s">
         <v>42</v>
       </c>
       <c r="E597" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F597" t="s">
-        <v>669</v>
+        <v>60</v>
+      </c>
+      <c r="G597" t="s">
+        <v>34</v>
       </c>
       <c r="H597" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="I597" t="s">
         <v>36</v>
@@ -47258,7 +47240,7 @@
         <v>37</v>
       </c>
       <c r="K597" s="1">
-        <v>45099</v>
+        <v>45042</v>
       </c>
       <c r="M597" t="s">
         <v>52</v>
@@ -47275,35 +47257,29 @@
       <c r="T597" t="s">
         <v>40</v>
       </c>
-      <c r="AB597" s="4">
-        <v>15000</v>
-      </c>
-      <c r="AC597" s="4">
-        <v>15000</v>
-      </c>
       <c r="AD597" s="4">
-        <v>15000</v>
+        <v>112366.37</v>
       </c>
       <c r="AE597" s="4">
-        <v>15000</v>
+        <v>113918.96</v>
       </c>
       <c r="AF597" s="4">
-        <v>15046.9</v>
+        <v>200612.93</v>
       </c>
       <c r="AG597" s="4">
-        <v>0.01</v>
+        <v>282738</v>
       </c>
       <c r="AH597" s="4">
-        <v>0</v>
+        <v>231160.19</v>
       </c>
       <c r="AI597" s="4">
-        <v>0</v>
+        <v>181973.47</v>
       </c>
       <c r="AJ597" s="4">
-        <v>0</v>
+        <v>181576.12</v>
       </c>
       <c r="AK597" s="4">
-        <v>0.01</v>
+        <v>134747.78</v>
       </c>
     </row>
     <row r="598" spans="1:37" x14ac:dyDescent="0.25">
@@ -47314,22 +47290,19 @@
         <v>889</v>
       </c>
       <c r="C598">
-        <v>4967702</v>
+        <v>4400000</v>
       </c>
       <c r="D598" t="s">
         <v>42</v>
       </c>
       <c r="E598" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F598" t="s">
-        <v>49</v>
-      </c>
-      <c r="G598" t="s">
-        <v>72</v>
+        <v>669</v>
       </c>
       <c r="H598" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="I598" t="s">
         <v>36</v>
@@ -47338,16 +47311,16 @@
         <v>37</v>
       </c>
       <c r="K598" s="1">
-        <v>45175</v>
+        <v>45099</v>
       </c>
       <c r="M598" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="N598" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O598" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="P598" s="3">
         <v>0.1</v>
@@ -47355,17 +47328,35 @@
       <c r="T598" t="s">
         <v>40</v>
       </c>
+      <c r="AB598" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AC598" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AD598" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AE598" s="4">
+        <v>15000</v>
+      </c>
+      <c r="AF598" s="4">
+        <v>15046.9</v>
+      </c>
+      <c r="AG598" s="4">
+        <v>0.01</v>
+      </c>
       <c r="AH598" s="4">
         <v>0</v>
       </c>
       <c r="AI598" s="4">
-        <v>193844.4</v>
+        <v>0</v>
       </c>
       <c r="AJ598" s="4">
-        <v>201445.17</v>
+        <v>0</v>
       </c>
       <c r="AK598" s="4">
-        <v>205170</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="599" spans="1:37" x14ac:dyDescent="0.25">
@@ -47376,19 +47367,19 @@
         <v>890</v>
       </c>
       <c r="C599">
-        <v>4360430</v>
+        <v>4967702</v>
       </c>
       <c r="D599" t="s">
         <v>42</v>
       </c>
       <c r="E599" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F599" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="G599" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H599" t="s">
         <v>35</v>
@@ -47400,55 +47391,34 @@
         <v>37</v>
       </c>
       <c r="K599" s="1">
-        <v>44959</v>
+        <v>45175</v>
       </c>
       <c r="M599" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N599" s="2">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O599" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="P599" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T599" t="s">
         <v>40</v>
       </c>
-      <c r="AA599" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB599" s="4">
-        <v>2010017.61</v>
-      </c>
-      <c r="AC599" s="4">
-        <v>2031340.41</v>
-      </c>
-      <c r="AD599" s="4">
-        <v>2045094.56</v>
-      </c>
-      <c r="AE599" s="4">
-        <v>2066995.05</v>
-      </c>
-      <c r="AF599" s="4">
-        <v>2086021.94</v>
-      </c>
-      <c r="AG599" s="4">
-        <v>2104306.92</v>
-      </c>
       <c r="AH599" s="4">
-        <v>2124517.67</v>
+        <v>0</v>
       </c>
       <c r="AI599" s="4">
-        <v>2141809.61</v>
+        <v>193844.4</v>
       </c>
       <c r="AJ599" s="4">
-        <v>2160907.4900000002</v>
+        <v>201445.17</v>
       </c>
       <c r="AK599" s="4">
-        <v>2176880.2599999998</v>
+        <v>205170</v>
       </c>
     </row>
     <row r="600" spans="1:37" x14ac:dyDescent="0.25">
@@ -47459,7 +47429,7 @@
         <v>891</v>
       </c>
       <c r="C600">
-        <v>2694089</v>
+        <v>4360430</v>
       </c>
       <c r="D600" t="s">
         <v>42</v>
@@ -47468,7 +47438,7 @@
         <v>43</v>
       </c>
       <c r="F600" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="G600" t="s">
         <v>47</v>
@@ -47483,13 +47453,13 @@
         <v>37</v>
       </c>
       <c r="K600" s="1">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="M600" t="s">
         <v>45</v>
       </c>
       <c r="N600" s="2">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O600" t="s">
         <v>36</v>
@@ -47501,37 +47471,37 @@
         <v>40</v>
       </c>
       <c r="AA600" s="4">
-        <v>367453.7</v>
+        <v>0</v>
       </c>
       <c r="AB600" s="4">
-        <v>371328.96</v>
+        <v>2010017.61</v>
       </c>
       <c r="AC600" s="4">
-        <v>376736.61</v>
+        <v>2031340.41</v>
       </c>
       <c r="AD600" s="4">
-        <v>377025.32</v>
+        <v>2045094.56</v>
       </c>
       <c r="AE600" s="4">
-        <v>378013.16</v>
+        <v>2066995.05</v>
       </c>
       <c r="AF600" s="4">
-        <v>375411.82</v>
+        <v>2086021.94</v>
       </c>
       <c r="AG600" s="4">
-        <v>376086.9</v>
+        <v>2104306.92</v>
       </c>
       <c r="AH600" s="4">
-        <v>375895.74</v>
+        <v>2124517.67</v>
       </c>
       <c r="AI600" s="4">
-        <v>373156.75</v>
+        <v>2141809.61</v>
       </c>
       <c r="AJ600" s="4">
-        <v>369535.58</v>
+        <v>2160907.4900000002</v>
       </c>
       <c r="AK600" s="4">
-        <v>368890.63</v>
+        <v>2176880.2599999998</v>
       </c>
     </row>
     <row r="601" spans="1:37" x14ac:dyDescent="0.25">
@@ -47542,7 +47512,7 @@
         <v>892</v>
       </c>
       <c r="C601">
-        <v>1294033</v>
+        <v>2694089</v>
       </c>
       <c r="D601" t="s">
         <v>42</v>
@@ -47554,7 +47524,7 @@
         <v>44</v>
       </c>
       <c r="G601" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H601" t="s">
         <v>35</v>
@@ -47566,13 +47536,13 @@
         <v>37</v>
       </c>
       <c r="K601" s="1">
-        <v>45163</v>
+        <v>44957</v>
       </c>
       <c r="M601" t="s">
         <v>45</v>
       </c>
       <c r="N601" s="2">
-        <v>1.2E-2</v>
+        <v>0.01</v>
       </c>
       <c r="O601" t="s">
         <v>36</v>
@@ -47583,20 +47553,38 @@
       <c r="T601" t="s">
         <v>40</v>
       </c>
+      <c r="AA601" s="4">
+        <v>367453.7</v>
+      </c>
+      <c r="AB601" s="4">
+        <v>371328.96</v>
+      </c>
+      <c r="AC601" s="4">
+        <v>376736.61</v>
+      </c>
+      <c r="AD601" s="4">
+        <v>377025.32</v>
+      </c>
+      <c r="AE601" s="4">
+        <v>378013.16</v>
+      </c>
+      <c r="AF601" s="4">
+        <v>375411.82</v>
+      </c>
       <c r="AG601" s="4">
-        <v>0</v>
+        <v>376086.9</v>
       </c>
       <c r="AH601" s="4">
-        <v>47901.55</v>
+        <v>375895.74</v>
       </c>
       <c r="AI601" s="4">
-        <v>48256.88</v>
+        <v>373156.75</v>
       </c>
       <c r="AJ601" s="4">
-        <v>48591.25</v>
+        <v>369535.58</v>
       </c>
       <c r="AK601" s="4">
-        <v>48964.38</v>
+        <v>368890.63</v>
       </c>
     </row>
     <row r="602" spans="1:37" x14ac:dyDescent="0.25">
@@ -47607,16 +47595,16 @@
         <v>893</v>
       </c>
       <c r="C602">
-        <v>1804114</v>
+        <v>1294033</v>
       </c>
       <c r="D602" t="s">
         <v>42</v>
       </c>
       <c r="E602" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="F602" t="s">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="G602" t="s">
         <v>34</v>
@@ -47631,52 +47619,37 @@
         <v>37</v>
       </c>
       <c r="K602" s="1">
-        <v>44998</v>
+        <v>45163</v>
       </c>
       <c r="M602" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N602" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O602" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P602" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T602" t="s">
         <v>40</v>
       </c>
-      <c r="AB602" s="4">
-        <v>4066.02</v>
-      </c>
-      <c r="AC602" s="4">
-        <v>119885.32</v>
-      </c>
-      <c r="AD602" s="4">
-        <v>120387.26</v>
-      </c>
-      <c r="AE602" s="4">
-        <v>122550.79</v>
-      </c>
-      <c r="AF602" s="4">
-        <v>124736.01</v>
-      </c>
       <c r="AG602" s="4">
-        <v>126205.58</v>
+        <v>0</v>
       </c>
       <c r="AH602" s="4">
-        <v>126009.64</v>
+        <v>47901.55</v>
       </c>
       <c r="AI602" s="4">
-        <v>238439.05</v>
+        <v>48256.88</v>
       </c>
       <c r="AJ602" s="4">
-        <v>238416.3</v>
+        <v>48591.25</v>
       </c>
       <c r="AK602" s="4">
-        <v>243583.02</v>
+        <v>48964.38</v>
       </c>
     </row>
     <row r="603" spans="1:37" x14ac:dyDescent="0.25">
@@ -47687,16 +47660,16 @@
         <v>894</v>
       </c>
       <c r="C603">
-        <v>5103059</v>
+        <v>1804114</v>
       </c>
       <c r="D603" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="E603" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="F603" t="s">
-        <v>373</v>
+        <v>228</v>
       </c>
       <c r="G603" t="s">
         <v>34</v>
@@ -47711,25 +47684,52 @@
         <v>37</v>
       </c>
       <c r="K603" s="1">
-        <v>45253</v>
+        <v>44998</v>
       </c>
       <c r="M603" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="N603" s="2">
-        <v>1.2E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O603" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P603" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T603" t="s">
         <v>40</v>
       </c>
+      <c r="AB603" s="4">
+        <v>4066.02</v>
+      </c>
+      <c r="AC603" s="4">
+        <v>119885.32</v>
+      </c>
+      <c r="AD603" s="4">
+        <v>120387.26</v>
+      </c>
+      <c r="AE603" s="4">
+        <v>122550.79</v>
+      </c>
+      <c r="AF603" s="4">
+        <v>124736.01</v>
+      </c>
+      <c r="AG603" s="4">
+        <v>126205.58</v>
+      </c>
+      <c r="AH603" s="4">
+        <v>126009.64</v>
+      </c>
+      <c r="AI603" s="4">
+        <v>238439.05</v>
+      </c>
+      <c r="AJ603" s="4">
+        <v>238416.3</v>
+      </c>
       <c r="AK603" s="4">
-        <v>170070.52</v>
+        <v>243583.02</v>
       </c>
     </row>
     <row r="604" spans="1:37" x14ac:dyDescent="0.25">
@@ -47740,19 +47740,19 @@
         <v>895</v>
       </c>
       <c r="C604">
-        <v>4462930</v>
+        <v>5103059</v>
       </c>
       <c r="D604" t="s">
-        <v>42</v>
+        <v>372</v>
       </c>
       <c r="E604" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F604" t="s">
-        <v>71</v>
+        <v>373</v>
       </c>
       <c r="G604" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H604" t="s">
         <v>35</v>
@@ -47761,55 +47761,28 @@
         <v>36</v>
       </c>
       <c r="J604" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="K604" s="1">
-        <v>45065</v>
+        <v>45253</v>
       </c>
       <c r="M604" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="N604" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O604" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="P604" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="Q604" t="s">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="T604" t="s">
         <v>40</v>
       </c>
-      <c r="AC604" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD604" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE604" s="4">
-        <v>36143.78</v>
-      </c>
-      <c r="AF604" s="4">
-        <v>149606.67000000001</v>
-      </c>
-      <c r="AG604" s="4">
-        <v>196044.31</v>
-      </c>
-      <c r="AH604" s="4">
-        <v>200551.99</v>
-      </c>
-      <c r="AI604" s="4">
-        <v>200139.34</v>
-      </c>
-      <c r="AJ604" s="4">
-        <v>191279.63</v>
-      </c>
       <c r="AK604" s="4">
-        <v>205527</v>
+        <v>170070.52</v>
       </c>
     </row>
     <row r="605" spans="1:37" x14ac:dyDescent="0.25">
@@ -47817,10 +47790,10 @@
         <v>29</v>
       </c>
       <c r="B605" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C605">
-        <v>4466221</v>
+        <v>4462930</v>
       </c>
       <c r="D605" t="s">
         <v>42</v>
@@ -47844,19 +47817,19 @@
         <v>51</v>
       </c>
       <c r="K605" s="1">
-        <v>45008</v>
+        <v>45065</v>
       </c>
       <c r="M605" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N605" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="O605" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P605" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q605" t="s">
         <v>897</v>
@@ -47865,31 +47838,31 @@
         <v>40</v>
       </c>
       <c r="AC605" s="4">
-        <v>163277.32999999999</v>
+        <v>0</v>
       </c>
       <c r="AD605" s="4">
-        <v>169594.56</v>
+        <v>0</v>
       </c>
       <c r="AE605" s="4">
-        <v>180521.59</v>
+        <v>36143.78</v>
       </c>
       <c r="AF605" s="4">
-        <v>184229.48</v>
+        <v>149606.67000000001</v>
       </c>
       <c r="AG605" s="4">
-        <v>191310.25</v>
+        <v>196044.31</v>
       </c>
       <c r="AH605" s="4">
-        <v>207176.92</v>
+        <v>200551.99</v>
       </c>
       <c r="AI605" s="4">
-        <v>205472.06</v>
+        <v>200139.34</v>
       </c>
       <c r="AJ605" s="4">
-        <v>200959.98</v>
+        <v>191279.63</v>
       </c>
       <c r="AK605" s="4">
-        <v>204814.37</v>
+        <v>205527</v>
       </c>
     </row>
     <row r="606" spans="1:37" x14ac:dyDescent="0.25">
@@ -47897,10 +47870,10 @@
         <v>29</v>
       </c>
       <c r="B606" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C606">
-        <v>4419765</v>
+        <v>4466221</v>
       </c>
       <c r="D606" t="s">
         <v>42</v>
@@ -47912,7 +47885,7 @@
         <v>71</v>
       </c>
       <c r="G606" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H606" t="s">
         <v>35</v>
@@ -47927,16 +47900,16 @@
         <v>45008</v>
       </c>
       <c r="M606" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N606" s="2">
-        <v>1.2E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O606" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="P606" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q606" t="s">
         <v>898</v>
@@ -47945,31 +47918,31 @@
         <v>40</v>
       </c>
       <c r="AC606" s="4">
-        <v>521621.68</v>
+        <v>163277.32999999999</v>
       </c>
       <c r="AD606" s="4">
-        <v>532518.37</v>
+        <v>169594.56</v>
       </c>
       <c r="AE606" s="4">
-        <v>507006.42</v>
+        <v>180521.59</v>
       </c>
       <c r="AF606" s="4">
-        <v>431627.77</v>
+        <v>184229.48</v>
       </c>
       <c r="AG606" s="4">
-        <v>435468.55</v>
+        <v>191310.25</v>
       </c>
       <c r="AH606" s="4">
-        <v>439899.37</v>
+        <v>207176.92</v>
       </c>
       <c r="AI606" s="4">
-        <v>442964.55</v>
+        <v>205472.06</v>
       </c>
       <c r="AJ606" s="4">
-        <v>446342.96</v>
+        <v>200959.98</v>
       </c>
       <c r="AK606" s="4">
-        <v>449986.5</v>
+        <v>204814.37</v>
       </c>
     </row>
     <row r="607" spans="1:37" x14ac:dyDescent="0.25">
@@ -47977,22 +47950,22 @@
         <v>29</v>
       </c>
       <c r="B607" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C607">
-        <v>4216504</v>
+        <v>4419765</v>
       </c>
       <c r="D607" t="s">
         <v>42</v>
       </c>
       <c r="E607" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F607" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="G607" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H607" t="s">
         <v>35</v>
@@ -48004,7 +47977,7 @@
         <v>51</v>
       </c>
       <c r="K607" s="1">
-        <v>44952</v>
+        <v>45008</v>
       </c>
       <c r="M607" t="s">
         <v>45</v>
@@ -48018,44 +47991,38 @@
       <c r="P607" s="3">
         <v>0</v>
       </c>
-      <c r="S607" t="s">
-        <v>900</v>
+      <c r="Q607" t="s">
+        <v>899</v>
       </c>
       <c r="T607" t="s">
         <v>40</v>
       </c>
-      <c r="AA607" s="4">
-        <v>579196.03</v>
-      </c>
-      <c r="AB607" s="4">
-        <v>798318.68</v>
-      </c>
       <c r="AC607" s="4">
-        <v>807877.6</v>
+        <v>521621.68</v>
       </c>
       <c r="AD607" s="4">
-        <v>813726.89</v>
+        <v>532518.37</v>
       </c>
       <c r="AE607" s="4">
-        <v>887588.24</v>
+        <v>507006.42</v>
       </c>
       <c r="AF607" s="4">
-        <v>843575.38</v>
+        <v>431627.77</v>
       </c>
       <c r="AG607" s="4">
-        <v>832895.88</v>
+        <v>435468.55</v>
       </c>
       <c r="AH607" s="4">
-        <v>839324.22</v>
+        <v>439899.37</v>
       </c>
       <c r="AI607" s="4">
-        <v>793669.27</v>
+        <v>442964.55</v>
       </c>
       <c r="AJ607" s="4">
-        <v>798873.52</v>
+        <v>446342.96</v>
       </c>
       <c r="AK607" s="4">
-        <v>804218.39</v>
+        <v>449986.5</v>
       </c>
     </row>
     <row r="608" spans="1:37" x14ac:dyDescent="0.25">
@@ -48063,10 +48030,10 @@
         <v>29</v>
       </c>
       <c r="B608" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C608">
-        <v>4422594</v>
+        <v>4216504</v>
       </c>
       <c r="D608" t="s">
         <v>42</v>
@@ -48075,22 +48042,22 @@
         <v>43</v>
       </c>
       <c r="F608" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="G608" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H608" t="s">
         <v>35</v>
       </c>
       <c r="I608" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J608" t="s">
         <v>51</v>
       </c>
       <c r="K608" s="1">
-        <v>44986</v>
+        <v>44952</v>
       </c>
       <c r="M608" t="s">
         <v>45</v>
@@ -48104,41 +48071,44 @@
       <c r="P608" s="3">
         <v>0</v>
       </c>
-      <c r="Q608" t="s">
-        <v>902</v>
+      <c r="S608" t="s">
+        <v>901</v>
       </c>
       <c r="T608" t="s">
         <v>40</v>
       </c>
+      <c r="AA608" s="4">
+        <v>579196.03</v>
+      </c>
       <c r="AB608" s="4">
-        <v>0</v>
+        <v>798318.68</v>
       </c>
       <c r="AC608" s="4">
-        <v>302924.14</v>
+        <v>807877.6</v>
       </c>
       <c r="AD608" s="4">
-        <v>305070.15000000002</v>
+        <v>813726.89</v>
       </c>
       <c r="AE608" s="4">
-        <v>308282</v>
+        <v>887588.24</v>
       </c>
       <c r="AF608" s="4">
-        <v>277.8</v>
+        <v>843575.38</v>
       </c>
       <c r="AG608" s="4">
-        <v>14.67</v>
+        <v>832895.88</v>
       </c>
       <c r="AH608" s="4">
-        <v>14.67</v>
+        <v>839324.22</v>
       </c>
       <c r="AI608" s="4">
-        <v>14.67</v>
+        <v>793669.27</v>
       </c>
       <c r="AJ608" s="4">
-        <v>14.67</v>
+        <v>798873.52</v>
       </c>
       <c r="AK608" s="4">
-        <v>14.67</v>
+        <v>804218.39</v>
       </c>
     </row>
     <row r="609" spans="1:37" x14ac:dyDescent="0.25">
@@ -48146,34 +48116,34 @@
         <v>29</v>
       </c>
       <c r="B609" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C609">
-        <v>4981655</v>
+        <v>4422594</v>
       </c>
       <c r="D609" t="s">
         <v>42</v>
       </c>
       <c r="E609" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F609" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="G609" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H609" t="s">
         <v>35</v>
       </c>
       <c r="I609" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="J609" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K609" s="1">
-        <v>45182</v>
+        <v>44986</v>
       </c>
       <c r="M609" t="s">
         <v>45</v>
@@ -48187,17 +48157,41 @@
       <c r="P609" s="3">
         <v>0</v>
       </c>
+      <c r="Q609" t="s">
+        <v>903</v>
+      </c>
       <c r="T609" t="s">
         <v>40</v>
       </c>
+      <c r="AB609" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC609" s="4">
+        <v>302924.14</v>
+      </c>
+      <c r="AD609" s="4">
+        <v>305070.15000000002</v>
+      </c>
+      <c r="AE609" s="4">
+        <v>308282</v>
+      </c>
+      <c r="AF609" s="4">
+        <v>277.8</v>
+      </c>
+      <c r="AG609" s="4">
+        <v>14.67</v>
+      </c>
+      <c r="AH609" s="4">
+        <v>14.67</v>
+      </c>
       <c r="AI609" s="4">
-        <v>131676.6</v>
+        <v>14.67</v>
       </c>
       <c r="AJ609" s="4">
-        <v>142546.85</v>
+        <v>14.67</v>
       </c>
       <c r="AK609" s="4">
-        <v>144758.67000000001</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="610" spans="1:37" x14ac:dyDescent="0.25">
@@ -48208,7 +48202,7 @@
         <v>904</v>
       </c>
       <c r="C610">
-        <v>2886520</v>
+        <v>4981655</v>
       </c>
       <c r="D610" t="s">
         <v>42</v>
@@ -48217,28 +48211,28 @@
         <v>32</v>
       </c>
       <c r="F610" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G610" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="H610" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I610" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J610" t="s">
         <v>37</v>
       </c>
       <c r="K610" s="1">
-        <v>45051</v>
+        <v>45182</v>
       </c>
       <c r="M610" t="s">
         <v>45</v>
       </c>
       <c r="N610" s="2">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O610" t="s">
         <v>36</v>
@@ -48249,29 +48243,14 @@
       <c r="T610" t="s">
         <v>40</v>
       </c>
-      <c r="AD610" s="4">
-        <v>1689189.64</v>
-      </c>
-      <c r="AE610" s="4">
-        <v>1696169.83</v>
-      </c>
-      <c r="AF610" s="4">
-        <v>1715562.2</v>
-      </c>
-      <c r="AG610" s="4">
-        <v>1374140.03</v>
-      </c>
-      <c r="AH610" s="4">
-        <v>0</v>
-      </c>
       <c r="AI610" s="4">
-        <v>0</v>
+        <v>131676.6</v>
       </c>
       <c r="AJ610" s="4">
-        <v>0</v>
+        <v>142546.85</v>
       </c>
       <c r="AK610" s="4">
-        <v>0</v>
+        <v>144758.67000000001</v>
       </c>
     </row>
     <row r="611" spans="1:37" x14ac:dyDescent="0.25">
@@ -48282,31 +48261,31 @@
         <v>905</v>
       </c>
       <c r="C611">
-        <v>4388077</v>
+        <v>2886520</v>
       </c>
       <c r="D611" t="s">
         <v>42</v>
       </c>
       <c r="E611" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F611" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G611" t="s">
         <v>34</v>
       </c>
       <c r="H611" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I611" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="J611" t="s">
         <v>37</v>
       </c>
       <c r="K611" s="1">
-        <v>44992</v>
+        <v>45051</v>
       </c>
       <c r="M611" t="s">
         <v>45</v>
@@ -48323,35 +48302,29 @@
       <c r="T611" t="s">
         <v>40</v>
       </c>
-      <c r="AB611" s="4">
-        <v>68740.039999999994</v>
-      </c>
-      <c r="AC611" s="4">
-        <v>69255.53</v>
-      </c>
       <c r="AD611" s="4">
-        <v>69786.2</v>
+        <v>1689189.64</v>
       </c>
       <c r="AE611" s="4">
-        <v>70572.13</v>
+        <v>1696169.83</v>
       </c>
       <c r="AF611" s="4">
-        <v>71251.350000000006</v>
+        <v>1715562.2</v>
       </c>
       <c r="AG611" s="4">
-        <v>61652.23</v>
+        <v>1374140.03</v>
       </c>
       <c r="AH611" s="4">
-        <v>62276.69</v>
+        <v>0</v>
       </c>
       <c r="AI611" s="4">
-        <v>62797.85</v>
+        <v>0</v>
       </c>
       <c r="AJ611" s="4">
-        <v>63368.38</v>
+        <v>0</v>
       </c>
       <c r="AK611" s="4">
-        <v>63801.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:37" x14ac:dyDescent="0.25">
@@ -48362,19 +48335,19 @@
         <v>906</v>
       </c>
       <c r="C612">
-        <v>4223226</v>
+        <v>4388077</v>
       </c>
       <c r="D612" t="s">
         <v>42</v>
       </c>
       <c r="E612" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F612" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G612" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H612" t="s">
         <v>35</v>
@@ -48386,13 +48359,13 @@
         <v>37</v>
       </c>
       <c r="K612" s="1">
-        <v>44894</v>
+        <v>44992</v>
       </c>
       <c r="M612" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="N612" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="O612" t="s">
         <v>36</v>
@@ -48401,43 +48374,37 @@
         <v>0</v>
       </c>
       <c r="T612" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z612" s="4">
-        <v>2655155.41</v>
-      </c>
-      <c r="AA612" s="4">
-        <v>2675570.11</v>
+        <v>40</v>
       </c>
       <c r="AB612" s="4">
-        <v>2699231.96</v>
+        <v>68740.039999999994</v>
       </c>
       <c r="AC612" s="4">
-        <v>2728008.19</v>
+        <v>69255.53</v>
       </c>
       <c r="AD612" s="4">
-        <v>2738653.68</v>
+        <v>69786.2</v>
       </c>
       <c r="AE612" s="4">
-        <v>2770866.74</v>
+        <v>70572.13</v>
       </c>
       <c r="AF612" s="4">
-        <v>2798261.37</v>
+        <v>71251.350000000006</v>
       </c>
       <c r="AG612" s="4">
-        <v>2825569.34</v>
+        <v>61652.23</v>
       </c>
       <c r="AH612" s="4">
-        <v>2851375.93</v>
+        <v>62276.69</v>
       </c>
       <c r="AI612" s="4">
-        <v>2873474.15</v>
+        <v>62797.85</v>
       </c>
       <c r="AJ612" s="4">
-        <v>2892360.45</v>
+        <v>63368.38</v>
       </c>
       <c r="AK612" s="4">
-        <v>360671.84</v>
+        <v>63801.15</v>
       </c>
     </row>
     <row r="613" spans="1:37" x14ac:dyDescent="0.25">
@@ -48448,19 +48415,19 @@
         <v>907</v>
       </c>
       <c r="C613">
-        <v>4552944</v>
+        <v>4223226</v>
       </c>
       <c r="D613" t="s">
         <v>42</v>
       </c>
       <c r="E613" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F613" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="G613" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="H613" t="s">
         <v>35</v>
@@ -48472,48 +48439,134 @@
         <v>37</v>
       </c>
       <c r="K613" s="1">
+        <v>44894</v>
+      </c>
+      <c r="M613" t="s">
+        <v>164</v>
+      </c>
+      <c r="N613" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O613" t="s">
+        <v>36</v>
+      </c>
+      <c r="P613" s="3">
+        <v>0</v>
+      </c>
+      <c r="T613" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z613" s="4">
+        <v>2655155.41</v>
+      </c>
+      <c r="AA613" s="4">
+        <v>2675570.11</v>
+      </c>
+      <c r="AB613" s="4">
+        <v>2699231.96</v>
+      </c>
+      <c r="AC613" s="4">
+        <v>2728008.19</v>
+      </c>
+      <c r="AD613" s="4">
+        <v>2738653.68</v>
+      </c>
+      <c r="AE613" s="4">
+        <v>2770866.74</v>
+      </c>
+      <c r="AF613" s="4">
+        <v>2798261.37</v>
+      </c>
+      <c r="AG613" s="4">
+        <v>2825569.34</v>
+      </c>
+      <c r="AH613" s="4">
+        <v>2851375.93</v>
+      </c>
+      <c r="AI613" s="4">
+        <v>2873474.15</v>
+      </c>
+      <c r="AJ613" s="4">
+        <v>2892360.45</v>
+      </c>
+      <c r="AK613" s="4">
+        <v>360671.84</v>
+      </c>
+    </row>
+    <row r="614" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>29</v>
+      </c>
+      <c r="B614" t="s">
+        <v>908</v>
+      </c>
+      <c r="C614">
+        <v>4552944</v>
+      </c>
+      <c r="D614" t="s">
+        <v>42</v>
+      </c>
+      <c r="E614" t="s">
+        <v>70</v>
+      </c>
+      <c r="F614" t="s">
+        <v>83</v>
+      </c>
+      <c r="G614" t="s">
+        <v>72</v>
+      </c>
+      <c r="H614" t="s">
+        <v>35</v>
+      </c>
+      <c r="I614" t="s">
+        <v>36</v>
+      </c>
+      <c r="J614" t="s">
+        <v>37</v>
+      </c>
+      <c r="K614" s="1">
         <v>45159</v>
       </c>
-      <c r="M613" t="s">
+      <c r="M614" t="s">
         <v>45</v>
       </c>
-      <c r="N613" s="2">
+      <c r="N614" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="O613" t="s">
-        <v>36</v>
-      </c>
-      <c r="P613" s="3">
-        <v>0</v>
-      </c>
-      <c r="S613" t="s">
-        <v>756</v>
-      </c>
-      <c r="T613" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD613" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE613" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF613" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG613" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH613" s="4">
+      <c r="O614" t="s">
+        <v>36</v>
+      </c>
+      <c r="P614" s="3">
+        <v>0</v>
+      </c>
+      <c r="S614" t="s">
+        <v>757</v>
+      </c>
+      <c r="T614" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD614" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE614" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF614" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG614" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH614" s="4">
         <v>211510.28</v>
       </c>
-      <c r="AI613" s="4">
+      <c r="AI614" s="4">
         <v>213108.31</v>
       </c>
-      <c r="AJ613" s="4">
+      <c r="AJ614" s="4">
         <v>214818.17</v>
       </c>
-      <c r="AK613" s="4">
+      <c r="AK614" s="4">
         <v>233600.15</v>
       </c>
     </row>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0355C91E-872F-4877-90AE-2E252F646EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C61305-9CBB-4CD1-B3A2-1ED1EE9D5A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{20F1DA4D-313C-486C-9367-A61A26013967}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABAB7CA5-06DB-4582-86EE-CFA5DBE16607}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7639" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7639" uniqueCount="911">
   <si>
     <t>Backoffice</t>
   </si>
@@ -1947,6 +1947,9 @@
   </si>
   <si>
     <t>100k RF Ativo - Separar contas</t>
+  </si>
+  <si>
+    <t>Alt de carteira</t>
   </si>
   <si>
     <t>Marcondes Jose Da Motta Junior</t>
@@ -2146,12 +2149,12 @@
     <t>Natalia Falavigna Silva</t>
   </si>
   <si>
+    <t>STVM da guide finalizada dia 27/12/2023 / Portabilidade de fundo a ser finalizada</t>
+  </si>
+  <si>
     <t>Natalia Falavigna Silva e Ana Maria Falavigna Silva</t>
   </si>
   <si>
-    <t>Conta será cancelada</t>
-  </si>
-  <si>
     <t>Natalia Rocha Vinhal</t>
   </si>
   <si>
@@ -2234,6 +2237,9 @@
   </si>
   <si>
     <t>Paula Falavigna Silva</t>
+  </si>
+  <si>
+    <t>Inicio de STVM da guide dia 26/12/2023</t>
   </si>
   <si>
     <t>Paula Falavigna Silva e Ana Maria Falavigna Silva</t>
@@ -3125,11 +3131,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC25915-F8DB-4785-92E3-2B99901B5D77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601359EB-97C7-49CB-9695-65A4A535392D}">
   <dimension ref="A1:AK614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:AK614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32567,7 +32573,7 @@
         <v>50</v>
       </c>
       <c r="H399" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="I399" t="s">
         <v>36</v>
@@ -32596,6 +32602,9 @@
       <c r="R399" t="s">
         <v>636</v>
       </c>
+      <c r="S399" t="s">
+        <v>637</v>
+      </c>
       <c r="T399" t="s">
         <v>40</v>
       </c>
@@ -32641,7 +32650,7 @@
         <v>29</v>
       </c>
       <c r="B400" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C400">
         <v>4853111</v>
@@ -32709,7 +32718,7 @@
         <v>29</v>
       </c>
       <c r="B401" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C401">
         <v>4752519</v>
@@ -32777,7 +32786,7 @@
         <v>29</v>
       </c>
       <c r="B402" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C402">
         <v>834301</v>
@@ -32854,7 +32863,7 @@
         <v>29</v>
       </c>
       <c r="B403" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C403">
         <v>4575621</v>
@@ -32896,7 +32905,7 @@
         <v>0.1</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="T403" t="s">
         <v>40</v>
@@ -32925,7 +32934,7 @@
         <v>29</v>
       </c>
       <c r="B404" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C404">
         <v>2738211</v>
@@ -32993,7 +33002,7 @@
         <v>29</v>
       </c>
       <c r="B405" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C405">
         <v>4811224</v>
@@ -33061,7 +33070,7 @@
         <v>29</v>
       </c>
       <c r="B406" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C406">
         <v>4807944</v>
@@ -33103,10 +33112,10 @@
         <v>0</v>
       </c>
       <c r="R406" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="S406" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="T406" t="s">
         <v>40</v>
@@ -33135,7 +33144,7 @@
         <v>29</v>
       </c>
       <c r="B407" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C407">
         <v>4552021</v>
@@ -33209,7 +33218,7 @@
         <v>29</v>
       </c>
       <c r="B408" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C408">
         <v>4212476</v>
@@ -33251,10 +33260,10 @@
         <v>0</v>
       </c>
       <c r="Q408" s="5" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="R408" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T408" t="s">
         <v>40</v>
@@ -33298,7 +33307,7 @@
         <v>29</v>
       </c>
       <c r="B409" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C409">
         <v>4214460</v>
@@ -33328,7 +33337,7 @@
         <v>44957</v>
       </c>
       <c r="M409" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="N409" s="2">
         <v>0.01</v>
@@ -33381,7 +33390,7 @@
         <v>29</v>
       </c>
       <c r="B410" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C410">
         <v>4893523</v>
@@ -33423,10 +33432,10 @@
         <v>0</v>
       </c>
       <c r="Q410" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="R410" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="T410" t="s">
         <v>40</v>
@@ -33452,7 +33461,7 @@
         <v>29</v>
       </c>
       <c r="B411" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C411">
         <v>4541022</v>
@@ -33529,7 +33538,7 @@
         <v>29</v>
       </c>
       <c r="B412" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C412">
         <v>4972070</v>
@@ -33591,7 +33600,7 @@
         <v>29</v>
       </c>
       <c r="B413" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C413">
         <v>4870019</v>
@@ -33650,7 +33659,7 @@
         <v>29</v>
       </c>
       <c r="B414" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C414">
         <v>4395314</v>
@@ -33730,7 +33739,7 @@
         <v>29</v>
       </c>
       <c r="B415" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C415">
         <v>4214604</v>
@@ -33813,7 +33822,7 @@
         <v>29</v>
       </c>
       <c r="B416" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C416">
         <v>4212581</v>
@@ -33855,10 +33864,10 @@
         <v>0</v>
       </c>
       <c r="Q416" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="R416" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="T416" t="s">
         <v>40</v>
@@ -33902,7 +33911,7 @@
         <v>29</v>
       </c>
       <c r="B417" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C417">
         <v>4242237</v>
@@ -33944,10 +33953,10 @@
         <v>0</v>
       </c>
       <c r="Q417" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="R417" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="T417" t="s">
         <v>40</v>
@@ -33991,7 +34000,7 @@
         <v>29</v>
       </c>
       <c r="B418" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C418">
         <v>4525587</v>
@@ -34068,7 +34077,7 @@
         <v>29</v>
       </c>
       <c r="B419" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C419">
         <v>4920447</v>
@@ -34130,7 +34139,7 @@
         <v>29</v>
       </c>
       <c r="B420" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C420">
         <v>5000460</v>
@@ -34189,7 +34198,7 @@
         <v>29</v>
       </c>
       <c r="B421" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C421">
         <v>5046919</v>
@@ -34245,7 +34254,7 @@
         <v>29</v>
       </c>
       <c r="B422" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C422">
         <v>4371913</v>
@@ -34331,7 +34340,7 @@
         <v>29</v>
       </c>
       <c r="B423" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C423">
         <v>4556150</v>
@@ -34405,7 +34414,7 @@
         <v>29</v>
       </c>
       <c r="B424" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C424">
         <v>3249855</v>
@@ -34473,7 +34482,7 @@
         <v>29</v>
       </c>
       <c r="B425" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C425">
         <v>4405702</v>
@@ -34485,7 +34494,7 @@
         <v>43</v>
       </c>
       <c r="F425" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H425" t="s">
         <v>56</v>
@@ -34512,7 +34521,7 @@
         <v>0.1</v>
       </c>
       <c r="S425" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="T425" t="s">
         <v>40</v>
@@ -34553,7 +34562,7 @@
         <v>29</v>
       </c>
       <c r="B426" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C426">
         <v>4428935</v>
@@ -34630,7 +34639,7 @@
         <v>29</v>
       </c>
       <c r="B427" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C427">
         <v>4431591</v>
@@ -34707,7 +34716,7 @@
         <v>29</v>
       </c>
       <c r="B428" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C428">
         <v>4643746</v>
@@ -34749,10 +34758,10 @@
         <v>0.1</v>
       </c>
       <c r="Q428" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="R428" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="T428" t="s">
         <v>40</v>
@@ -34787,7 +34796,7 @@
         <v>29</v>
       </c>
       <c r="B429" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C429">
         <v>4395599</v>
@@ -34867,7 +34876,7 @@
         <v>29</v>
       </c>
       <c r="B430" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C430">
         <v>5140667</v>
@@ -34920,7 +34929,7 @@
         <v>29</v>
       </c>
       <c r="B431" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C431">
         <v>4451652</v>
@@ -34997,7 +35006,7 @@
         <v>29</v>
       </c>
       <c r="B432" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C432">
         <v>4756981</v>
@@ -35065,7 +35074,7 @@
         <v>29</v>
       </c>
       <c r="B433" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C433">
         <v>4115381</v>
@@ -35151,7 +35160,7 @@
         <v>29</v>
       </c>
       <c r="B434" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C434">
         <v>4255049</v>
@@ -35234,7 +35243,7 @@
         <v>29</v>
       </c>
       <c r="B435" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C435">
         <v>4472459</v>
@@ -35311,7 +35320,7 @@
         <v>29</v>
       </c>
       <c r="B436" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C436">
         <v>4165515</v>
@@ -35388,7 +35397,7 @@
         <v>29</v>
       </c>
       <c r="B437" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C437">
         <v>4355790</v>
@@ -35462,7 +35471,7 @@
         <v>29</v>
       </c>
       <c r="B438" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C438">
         <v>5170415</v>
@@ -35512,7 +35521,7 @@
         <v>29</v>
       </c>
       <c r="B439" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C439">
         <v>4813134</v>
@@ -35580,7 +35589,7 @@
         <v>29</v>
       </c>
       <c r="B440" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C440">
         <v>4387250</v>
@@ -35660,7 +35669,7 @@
         <v>29</v>
       </c>
       <c r="B441" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C441">
         <v>4526450</v>
@@ -35734,7 +35743,7 @@
         <v>29</v>
       </c>
       <c r="B442" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C442">
         <v>4397124</v>
@@ -35776,10 +35785,10 @@
         <v>0</v>
       </c>
       <c r="Q442" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="R442" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="T442" t="s">
         <v>40</v>
@@ -35820,7 +35829,7 @@
         <v>29</v>
       </c>
       <c r="B443" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C443">
         <v>4630773</v>
@@ -35862,10 +35871,10 @@
         <v>0.1</v>
       </c>
       <c r="Q443" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="S443" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="T443" t="s">
         <v>40</v>
@@ -35900,7 +35909,7 @@
         <v>29</v>
       </c>
       <c r="B444" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C444">
         <v>4419782</v>
@@ -35977,7 +35986,7 @@
         <v>29</v>
       </c>
       <c r="B445" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C445">
         <v>4749928</v>
@@ -36045,7 +36054,7 @@
         <v>29</v>
       </c>
       <c r="B446" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C446">
         <v>4448303</v>
@@ -36087,10 +36096,10 @@
         <v>0</v>
       </c>
       <c r="Q446" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="R446" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="T446" t="s">
         <v>40</v>
@@ -36128,7 +36137,7 @@
         <v>29</v>
       </c>
       <c r="B447" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C447">
         <v>1759765</v>
@@ -36205,7 +36214,7 @@
         <v>29</v>
       </c>
       <c r="B448" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C448">
         <v>4320840</v>
@@ -36247,10 +36256,10 @@
         <v>0</v>
       </c>
       <c r="Q448" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="R448" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="T448" t="s">
         <v>40</v>
@@ -36294,7 +36303,7 @@
         <v>29</v>
       </c>
       <c r="B449" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C449">
         <v>4327758</v>
@@ -36377,7 +36386,7 @@
         <v>29</v>
       </c>
       <c r="B450" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C450">
         <v>4482102</v>
@@ -36395,7 +36404,7 @@
         <v>72</v>
       </c>
       <c r="H450" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I450" t="s">
         <v>75</v>
@@ -36418,11 +36427,8 @@
       <c r="P450" s="3">
         <v>0.1</v>
       </c>
-      <c r="Q450" t="s">
-        <v>358</v>
-      </c>
       <c r="S450" t="s">
-        <v>100</v>
+        <v>703</v>
       </c>
       <c r="T450" t="s">
         <v>40</v>
@@ -36460,7 +36466,7 @@
         <v>29</v>
       </c>
       <c r="B451" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C451">
         <v>4479450</v>
@@ -36504,9 +36510,6 @@
       <c r="P451" s="3">
         <v>0</v>
       </c>
-      <c r="S451" t="s">
-        <v>703</v>
-      </c>
       <c r="T451" t="s">
         <v>40</v>
       </c>
@@ -36543,7 +36546,7 @@
         <v>29</v>
       </c>
       <c r="B452" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C452">
         <v>5063749</v>
@@ -36599,7 +36602,7 @@
         <v>29</v>
       </c>
       <c r="B453" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C453">
         <v>5075382</v>
@@ -36649,7 +36652,7 @@
         <v>29</v>
       </c>
       <c r="B454" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C454">
         <v>4371857</v>
@@ -36732,7 +36735,7 @@
         <v>29</v>
       </c>
       <c r="B455" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C455">
         <v>4693631</v>
@@ -36774,7 +36777,7 @@
         <v>0</v>
       </c>
       <c r="Q455" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="T455" t="s">
         <v>40</v>
@@ -36803,7 +36806,7 @@
         <v>29</v>
       </c>
       <c r="B456" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C456">
         <v>5073033</v>
@@ -36845,7 +36848,7 @@
         <v>0</v>
       </c>
       <c r="S456" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="T456" t="s">
         <v>148</v>
@@ -36862,7 +36865,7 @@
         <v>29</v>
       </c>
       <c r="B457" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C457">
         <v>4239624</v>
@@ -36904,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="Q457" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="T457" t="s">
         <v>40</v>
@@ -36948,7 +36951,7 @@
         <v>29</v>
       </c>
       <c r="B458" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C458">
         <v>5055239</v>
@@ -37004,7 +37007,7 @@
         <v>29</v>
       </c>
       <c r="B459" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C459">
         <v>4935287</v>
@@ -37046,10 +37049,10 @@
         <v>0</v>
       </c>
       <c r="Q459" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="R459" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="T459" t="s">
         <v>40</v>
@@ -37072,7 +37075,7 @@
         <v>29</v>
       </c>
       <c r="B460" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C460">
         <v>4010232</v>
@@ -37149,7 +37152,7 @@
         <v>29</v>
       </c>
       <c r="B461" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C461">
         <v>4214592</v>
@@ -37232,7 +37235,7 @@
         <v>29</v>
       </c>
       <c r="B462" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C462">
         <v>4334062</v>
@@ -37315,7 +37318,7 @@
         <v>29</v>
       </c>
       <c r="B463" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C463">
         <v>4749680</v>
@@ -37345,7 +37348,7 @@
         <v>45097</v>
       </c>
       <c r="M463" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N463" s="2">
         <v>0.01</v>
@@ -37357,7 +37360,7 @@
         <v>0</v>
       </c>
       <c r="Q463" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="R463" t="s">
         <v>538</v>
@@ -37386,7 +37389,7 @@
         <v>29</v>
       </c>
       <c r="B464" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C464">
         <v>4452946</v>
@@ -37463,7 +37466,7 @@
         <v>29</v>
       </c>
       <c r="B465" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C465">
         <v>4451725</v>
@@ -37543,7 +37546,7 @@
         <v>29</v>
       </c>
       <c r="B466" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C466">
         <v>4268684</v>
@@ -37555,7 +37558,7 @@
         <v>32</v>
       </c>
       <c r="F466" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G466" t="s">
         <v>47</v>
@@ -37626,7 +37629,7 @@
         <v>29</v>
       </c>
       <c r="B467" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C467">
         <v>4421636</v>
@@ -37638,7 +37641,7 @@
         <v>32</v>
       </c>
       <c r="F467" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G467" t="s">
         <v>34</v>
@@ -37706,7 +37709,7 @@
         <v>29</v>
       </c>
       <c r="B468" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C468">
         <v>4805133</v>
@@ -37748,7 +37751,7 @@
         <v>0</v>
       </c>
       <c r="R468" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="T468" t="s">
         <v>40</v>
@@ -37777,7 +37780,7 @@
         <v>29</v>
       </c>
       <c r="B469" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C469">
         <v>4267044</v>
@@ -37863,7 +37866,7 @@
         <v>29</v>
       </c>
       <c r="B470" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C470">
         <v>4471893</v>
@@ -37887,7 +37890,7 @@
         <v>75</v>
       </c>
       <c r="J470" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="K470" s="1">
         <v>45163</v>
@@ -37904,6 +37907,9 @@
       <c r="P470" s="3">
         <v>0.1</v>
       </c>
+      <c r="Q470" t="s">
+        <v>733</v>
+      </c>
       <c r="S470" t="s">
         <v>100</v>
       </c>
@@ -37943,7 +37949,7 @@
         <v>29</v>
       </c>
       <c r="B471" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C471">
         <v>4479429</v>
@@ -37988,10 +37994,10 @@
         <v>0</v>
       </c>
       <c r="Q471" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="S471" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="T471" t="s">
         <v>40</v>
@@ -38029,7 +38035,7 @@
         <v>29</v>
       </c>
       <c r="B472" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C472">
         <v>4503374</v>
@@ -38106,7 +38112,7 @@
         <v>29</v>
       </c>
       <c r="B473" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C473">
         <v>4500057</v>
@@ -38148,7 +38154,7 @@
         <v>0</v>
       </c>
       <c r="S473" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="T473" t="s">
         <v>40</v>
@@ -38186,7 +38192,7 @@
         <v>29</v>
       </c>
       <c r="B474" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C474">
         <v>4572740</v>
@@ -38228,7 +38234,7 @@
         <v>0.2</v>
       </c>
       <c r="Q474" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="T474" t="s">
         <v>40</v>
@@ -38263,7 +38269,7 @@
         <v>29</v>
       </c>
       <c r="B475" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C475">
         <v>4419141</v>
@@ -38305,7 +38311,7 @@
         <v>0.1</v>
       </c>
       <c r="Q475" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="T475" t="s">
         <v>40</v>
@@ -38346,7 +38352,7 @@
         <v>29</v>
       </c>
       <c r="B476" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C476">
         <v>4644524</v>
@@ -38388,7 +38394,7 @@
         <v>0</v>
       </c>
       <c r="R476" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="T476" t="s">
         <v>40</v>
@@ -38423,7 +38429,7 @@
         <v>29</v>
       </c>
       <c r="B477" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C477">
         <v>4404248</v>
@@ -38503,7 +38509,7 @@
         <v>29</v>
       </c>
       <c r="B478" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C478">
         <v>2786022</v>
@@ -38586,7 +38592,7 @@
         <v>29</v>
       </c>
       <c r="B479" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C479">
         <v>5133039</v>
@@ -38625,7 +38631,7 @@
         <v>0</v>
       </c>
       <c r="S479" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="T479" t="s">
         <v>40</v>
@@ -38639,7 +38645,7 @@
         <v>29</v>
       </c>
       <c r="B480" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C480">
         <v>4482439</v>
@@ -38681,7 +38687,7 @@
         <v>0.2</v>
       </c>
       <c r="Q480" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="T480" t="s">
         <v>40</v>
@@ -38719,7 +38725,7 @@
         <v>29</v>
       </c>
       <c r="B481" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C481">
         <v>4480336</v>
@@ -38796,7 +38802,7 @@
         <v>29</v>
       </c>
       <c r="B482" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C482">
         <v>4809902</v>
@@ -38864,7 +38870,7 @@
         <v>29</v>
       </c>
       <c r="B483" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C483">
         <v>5081833</v>
@@ -38906,7 +38912,7 @@
         <v>0</v>
       </c>
       <c r="Q483" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="T483" t="s">
         <v>40</v>
@@ -38923,7 +38929,7 @@
         <v>29</v>
       </c>
       <c r="B484" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C484">
         <v>4460491</v>
@@ -39000,7 +39006,7 @@
         <v>29</v>
       </c>
       <c r="B485" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C485">
         <v>4458624</v>
@@ -39042,7 +39048,7 @@
         <v>0</v>
       </c>
       <c r="Q485" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="T485" t="s">
         <v>40</v>
@@ -39080,7 +39086,7 @@
         <v>29</v>
       </c>
       <c r="B486" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C486">
         <v>4460487</v>
@@ -39122,7 +39128,7 @@
         <v>0</v>
       </c>
       <c r="S486" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="T486" t="s">
         <v>40</v>
@@ -39160,7 +39166,7 @@
         <v>29</v>
       </c>
       <c r="B487" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C487">
         <v>4381359</v>
@@ -39202,7 +39208,7 @@
         <v>0.1</v>
       </c>
       <c r="S487" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="T487" t="s">
         <v>40</v>
@@ -39246,7 +39252,7 @@
         <v>29</v>
       </c>
       <c r="B488" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C488">
         <v>4561369</v>
@@ -39288,7 +39294,7 @@
         <v>0</v>
       </c>
       <c r="Q488" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="T488" t="s">
         <v>40</v>
@@ -39311,7 +39317,7 @@
         <v>29</v>
       </c>
       <c r="B489" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C489">
         <v>4690692</v>
@@ -39353,7 +39359,7 @@
         <v>0.2</v>
       </c>
       <c r="Q489" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="T489" t="s">
         <v>148</v>
@@ -39388,7 +39394,7 @@
         <v>29</v>
       </c>
       <c r="B490" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C490">
         <v>4915243</v>
@@ -39450,7 +39456,7 @@
         <v>29</v>
       </c>
       <c r="B491" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C491">
         <v>4389994</v>
@@ -39492,7 +39498,7 @@
         <v>0.1</v>
       </c>
       <c r="Q491" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="T491" t="s">
         <v>40</v>
@@ -39530,7 +39536,7 @@
         <v>29</v>
       </c>
       <c r="B492" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C492">
         <v>4224771</v>
@@ -39613,7 +39619,7 @@
         <v>29</v>
       </c>
       <c r="B493" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C493">
         <v>4224284</v>
@@ -39696,7 +39702,7 @@
         <v>29</v>
       </c>
       <c r="B494" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C494">
         <v>4497825</v>
@@ -39773,7 +39779,7 @@
         <v>29</v>
       </c>
       <c r="B495" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C495">
         <v>4588677</v>
@@ -39847,7 +39853,7 @@
         <v>29</v>
       </c>
       <c r="B496" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C496">
         <v>4222784</v>
@@ -39889,7 +39895,7 @@
         <v>0</v>
       </c>
       <c r="Q496" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="T496" t="s">
         <v>40</v>
@@ -39930,7 +39936,7 @@
         <v>29</v>
       </c>
       <c r="B497" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C497">
         <v>4500804</v>
@@ -39972,7 +39978,7 @@
         <v>0</v>
       </c>
       <c r="S497" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="T497" t="s">
         <v>40</v>
@@ -40010,7 +40016,7 @@
         <v>29</v>
       </c>
       <c r="B498" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C498">
         <v>5135281</v>
@@ -40063,7 +40069,7 @@
         <v>29</v>
       </c>
       <c r="B499" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C499">
         <v>4212409</v>
@@ -40149,7 +40155,7 @@
         <v>29</v>
       </c>
       <c r="B500" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C500">
         <v>4457389</v>
@@ -40223,7 +40229,7 @@
         <v>29</v>
       </c>
       <c r="B501" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C501">
         <v>4454365</v>
@@ -40235,7 +40241,7 @@
         <v>32</v>
       </c>
       <c r="F501" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="G501" t="s">
         <v>34</v>
@@ -40300,7 +40306,7 @@
         <v>29</v>
       </c>
       <c r="B502" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C502">
         <v>2064834</v>
@@ -40377,7 +40383,7 @@
         <v>29</v>
       </c>
       <c r="B503" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C503">
         <v>5058141</v>
@@ -40436,7 +40442,7 @@
         <v>29</v>
       </c>
       <c r="B504" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C504">
         <v>4466350</v>
@@ -40478,7 +40484,7 @@
         <v>0</v>
       </c>
       <c r="S504" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="T504" t="s">
         <v>40</v>
@@ -40516,7 +40522,7 @@
         <v>29</v>
       </c>
       <c r="B505" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C505">
         <v>4879113</v>
@@ -40558,7 +40564,7 @@
         <v>0</v>
       </c>
       <c r="S505" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="T505" t="s">
         <v>148</v>
@@ -40584,7 +40590,7 @@
         <v>29</v>
       </c>
       <c r="B506" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C506">
         <v>4208733</v>
@@ -40626,7 +40632,7 @@
         <v>0</v>
       </c>
       <c r="S506" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="T506" t="s">
         <v>40</v>
@@ -40670,7 +40676,7 @@
         <v>29</v>
       </c>
       <c r="B507" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C507">
         <v>4550605</v>
@@ -40747,7 +40753,7 @@
         <v>29</v>
       </c>
       <c r="B508" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C508">
         <v>2828327</v>
@@ -40830,7 +40836,7 @@
         <v>29</v>
       </c>
       <c r="B509" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C509">
         <v>4318604</v>
@@ -40872,7 +40878,7 @@
         <v>0.1</v>
       </c>
       <c r="S509" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="T509" t="s">
         <v>40</v>
@@ -40916,7 +40922,7 @@
         <v>29</v>
       </c>
       <c r="B510" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C510">
         <v>4340984</v>
@@ -40958,7 +40964,7 @@
         <v>0.1</v>
       </c>
       <c r="Q510" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="T510" t="s">
         <v>40</v>
@@ -41002,7 +41008,7 @@
         <v>29</v>
       </c>
       <c r="B511" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C511">
         <v>4646727</v>
@@ -41064,7 +41070,7 @@
         <v>29</v>
       </c>
       <c r="B512" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C512">
         <v>4850070</v>
@@ -41106,7 +41112,7 @@
         <v>0</v>
       </c>
       <c r="Q512" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="T512" t="s">
         <v>40</v>
@@ -41132,7 +41138,7 @@
         <v>29</v>
       </c>
       <c r="B513" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C513">
         <v>4862677</v>
@@ -41197,7 +41203,7 @@
         <v>29</v>
       </c>
       <c r="B514" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="C514">
         <v>4862672</v>
@@ -41262,7 +41268,7 @@
         <v>29</v>
       </c>
       <c r="B515" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C515">
         <v>4886366</v>
@@ -41327,7 +41333,7 @@
         <v>29</v>
       </c>
       <c r="B516" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C516">
         <v>4237325</v>
@@ -41369,7 +41375,7 @@
         <v>0.1</v>
       </c>
       <c r="Q516" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="T516" t="s">
         <v>40</v>
@@ -41413,7 +41419,7 @@
         <v>29</v>
       </c>
       <c r="B517" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C517">
         <v>4539779</v>
@@ -41487,7 +41493,7 @@
         <v>29</v>
       </c>
       <c r="B518" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C518">
         <v>4505474</v>
@@ -41561,7 +41567,7 @@
         <v>29</v>
       </c>
       <c r="B519" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C519">
         <v>4497963</v>
@@ -41638,7 +41644,7 @@
         <v>29</v>
       </c>
       <c r="B520" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C520">
         <v>4482262</v>
@@ -41715,7 +41721,7 @@
         <v>29</v>
       </c>
       <c r="B521" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C521">
         <v>4586209</v>
@@ -41745,7 +41751,7 @@
         <v>45124</v>
       </c>
       <c r="M521" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="N521" s="2">
         <v>1.4E-2</v>
@@ -41783,7 +41789,7 @@
         <v>29</v>
       </c>
       <c r="B522" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C522">
         <v>4207658</v>
@@ -41866,7 +41872,7 @@
         <v>29</v>
       </c>
       <c r="B523" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C523">
         <v>4462543</v>
@@ -41943,7 +41949,7 @@
         <v>29</v>
       </c>
       <c r="B524" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C524">
         <v>4470679</v>
@@ -41985,7 +41991,7 @@
         <v>0</v>
       </c>
       <c r="S524" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="T524" t="s">
         <v>40</v>
@@ -42023,7 +42029,7 @@
         <v>29</v>
       </c>
       <c r="B525" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C525">
         <v>4472538</v>
@@ -42065,7 +42071,7 @@
         <v>0.1</v>
       </c>
       <c r="S525" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="T525" t="s">
         <v>40</v>
@@ -42103,7 +42109,7 @@
         <v>29</v>
       </c>
       <c r="B526" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C526">
         <v>4465646</v>
@@ -42180,7 +42186,7 @@
         <v>29</v>
       </c>
       <c r="B527" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C527">
         <v>5152037</v>
@@ -42227,7 +42233,7 @@
         <v>29</v>
       </c>
       <c r="B528" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C528">
         <v>4532856</v>
@@ -42269,7 +42275,7 @@
         <v>0</v>
       </c>
       <c r="Q528" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="T528" t="s">
         <v>40</v>
@@ -42304,7 +42310,7 @@
         <v>29</v>
       </c>
       <c r="B529" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C529">
         <v>4538384</v>
@@ -42381,7 +42387,7 @@
         <v>29</v>
       </c>
       <c r="B530" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C530">
         <v>4541149</v>
@@ -42458,7 +42464,7 @@
         <v>29</v>
       </c>
       <c r="B531" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C531">
         <v>4374891</v>
@@ -42541,7 +42547,7 @@
         <v>29</v>
       </c>
       <c r="B532" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C532">
         <v>4479734</v>
@@ -42618,7 +42624,7 @@
         <v>29</v>
       </c>
       <c r="B533" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="C533">
         <v>5142624</v>
@@ -42671,7 +42677,7 @@
         <v>29</v>
       </c>
       <c r="B534" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C534">
         <v>4392159</v>
@@ -42683,7 +42689,7 @@
         <v>32</v>
       </c>
       <c r="F534" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G534" t="s">
         <v>34</v>
@@ -42751,7 +42757,7 @@
         <v>29</v>
       </c>
       <c r="B535" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C535">
         <v>1813259</v>
@@ -42819,7 +42825,7 @@
         <v>29</v>
       </c>
       <c r="B536" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C536">
         <v>4487016</v>
@@ -42896,7 +42902,7 @@
         <v>29</v>
       </c>
       <c r="B537" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C537">
         <v>4475145</v>
@@ -42938,7 +42944,7 @@
         <v>0</v>
       </c>
       <c r="S537" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="T537" t="s">
         <v>40</v>
@@ -42976,7 +42982,7 @@
         <v>29</v>
       </c>
       <c r="B538" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C538">
         <v>4805333</v>
@@ -43018,7 +43024,7 @@
         <v>0</v>
       </c>
       <c r="Q538" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="T538" t="s">
         <v>40</v>
@@ -43047,7 +43053,7 @@
         <v>29</v>
       </c>
       <c r="B539" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C539">
         <v>4392004</v>
@@ -43127,7 +43133,7 @@
         <v>29</v>
       </c>
       <c r="B540" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C540">
         <v>4924222</v>
@@ -43189,7 +43195,7 @@
         <v>29</v>
       </c>
       <c r="B541" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C541">
         <v>4413523</v>
@@ -43266,7 +43272,7 @@
         <v>29</v>
       </c>
       <c r="B542" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C542">
         <v>5002457</v>
@@ -43308,7 +43314,7 @@
         <v>0.1</v>
       </c>
       <c r="S542" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="T542" t="s">
         <v>40</v>
@@ -43328,7 +43334,7 @@
         <v>29</v>
       </c>
       <c r="B543" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C543">
         <v>4530494</v>
@@ -43402,7 +43408,7 @@
         <v>29</v>
       </c>
       <c r="B544" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C544">
         <v>4472076</v>
@@ -43479,7 +43485,7 @@
         <v>29</v>
       </c>
       <c r="B545" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C545">
         <v>5142661</v>
@@ -43532,7 +43538,7 @@
         <v>29</v>
       </c>
       <c r="B546" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C546">
         <v>4560107</v>
@@ -43606,7 +43612,7 @@
         <v>29</v>
       </c>
       <c r="B547" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C547">
         <v>4472760</v>
@@ -43683,7 +43689,7 @@
         <v>29</v>
       </c>
       <c r="B548" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C548">
         <v>5147664</v>
@@ -43730,7 +43736,7 @@
         <v>29</v>
       </c>
       <c r="B549" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C549">
         <v>4752494</v>
@@ -43798,7 +43804,7 @@
         <v>29</v>
       </c>
       <c r="B550" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C550">
         <v>4975924</v>
@@ -43840,7 +43846,7 @@
         <v>0.1</v>
       </c>
       <c r="Q550" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="T550" t="s">
         <v>40</v>
@@ -43863,7 +43869,7 @@
         <v>29</v>
       </c>
       <c r="B551" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C551">
         <v>4752461</v>
@@ -43931,7 +43937,7 @@
         <v>29</v>
       </c>
       <c r="B552" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C552">
         <v>4207955</v>
@@ -44014,7 +44020,7 @@
         <v>29</v>
       </c>
       <c r="B553" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C553">
         <v>4450760</v>
@@ -44091,7 +44097,7 @@
         <v>29</v>
       </c>
       <c r="B554" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C554">
         <v>4322549</v>
@@ -44174,7 +44180,7 @@
         <v>29</v>
       </c>
       <c r="B555" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C555">
         <v>2823185</v>
@@ -44254,7 +44260,7 @@
         <v>29</v>
       </c>
       <c r="B556" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C556">
         <v>4315417</v>
@@ -44331,7 +44337,7 @@
         <v>29</v>
       </c>
       <c r="B557" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C557">
         <v>4455489</v>
@@ -44373,7 +44379,7 @@
         <v>0.1</v>
       </c>
       <c r="R557" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="T557" t="s">
         <v>40</v>
@@ -44411,7 +44417,7 @@
         <v>29</v>
       </c>
       <c r="B558" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C558">
         <v>1922009</v>
@@ -44467,7 +44473,7 @@
         <v>29</v>
       </c>
       <c r="B559" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C559">
         <v>4945203</v>
@@ -44512,7 +44518,7 @@
         <v>166</v>
       </c>
       <c r="S559" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="T559" t="s">
         <v>40</v>
@@ -44535,7 +44541,7 @@
         <v>29</v>
       </c>
       <c r="B560" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C560">
         <v>4945161</v>
@@ -44577,7 +44583,7 @@
         <v>0</v>
       </c>
       <c r="S560" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="T560" t="s">
         <v>40</v>
@@ -44600,7 +44606,7 @@
         <v>29</v>
       </c>
       <c r="B561" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C561">
         <v>4999410</v>
@@ -44642,7 +44648,7 @@
         <v>0</v>
       </c>
       <c r="Q561" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="T561" t="s">
         <v>40</v>
@@ -44662,7 +44668,7 @@
         <v>29</v>
       </c>
       <c r="B562" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C562">
         <v>5007114</v>
@@ -44704,7 +44710,7 @@
         <v>0</v>
       </c>
       <c r="S562" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="T562" t="s">
         <v>40</v>
@@ -44724,7 +44730,7 @@
         <v>29</v>
       </c>
       <c r="B563" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C563">
         <v>5145205</v>
@@ -44766,7 +44772,7 @@
         <v>0</v>
       </c>
       <c r="Q563" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="T563" t="s">
         <v>40</v>
@@ -44777,7 +44783,7 @@
         <v>29</v>
       </c>
       <c r="B564" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="C564">
         <v>4243043</v>
@@ -44854,7 +44860,7 @@
         <v>29</v>
       </c>
       <c r="B565" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C565">
         <v>4216401</v>
@@ -44934,7 +44940,7 @@
         <v>29</v>
       </c>
       <c r="B566" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C566">
         <v>4331477</v>
@@ -45017,7 +45023,7 @@
         <v>29</v>
       </c>
       <c r="B567" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C567">
         <v>4350101</v>
@@ -45091,7 +45097,7 @@
         <v>29</v>
       </c>
       <c r="B568" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C568">
         <v>4517080</v>
@@ -45165,7 +45171,7 @@
         <v>29</v>
       </c>
       <c r="B569" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C569">
         <v>4202332</v>
@@ -45248,7 +45254,7 @@
         <v>29</v>
       </c>
       <c r="B570" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="C570">
         <v>4536602</v>
@@ -45322,7 +45328,7 @@
         <v>29</v>
       </c>
       <c r="B571" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C571">
         <v>4260040</v>
@@ -45408,7 +45414,7 @@
         <v>29</v>
       </c>
       <c r="B572" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C572">
         <v>1879977</v>
@@ -45494,7 +45500,7 @@
         <v>29</v>
       </c>
       <c r="B573" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C573">
         <v>4550289</v>
@@ -45568,7 +45574,7 @@
         <v>29</v>
       </c>
       <c r="B574" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C574">
         <v>4425261</v>
@@ -45690,7 +45696,7 @@
         <v>0</v>
       </c>
       <c r="Q575" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="T575" t="s">
         <v>40</v>
@@ -45713,7 +45719,7 @@
         <v>29</v>
       </c>
       <c r="B576" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C576">
         <v>4382374</v>
@@ -45790,7 +45796,7 @@
         <v>29</v>
       </c>
       <c r="B577" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C577">
         <v>3189818</v>
@@ -45832,7 +45838,7 @@
         <v>0</v>
       </c>
       <c r="S577" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="T577" t="s">
         <v>40</v>
@@ -45879,7 +45885,7 @@
         <v>29</v>
       </c>
       <c r="B578" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C578">
         <v>1368670</v>
@@ -45965,7 +45971,7 @@
         <v>29</v>
       </c>
       <c r="B579" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="C579">
         <v>5064129</v>
@@ -46021,7 +46027,7 @@
         <v>29</v>
       </c>
       <c r="B580" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C580">
         <v>4381095</v>
@@ -46104,7 +46110,7 @@
         <v>29</v>
       </c>
       <c r="B581" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="C581">
         <v>4224011</v>
@@ -46146,7 +46152,7 @@
         <v>0</v>
       </c>
       <c r="Q581" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="T581" t="s">
         <v>40</v>
@@ -46190,7 +46196,7 @@
         <v>29</v>
       </c>
       <c r="B582" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C582">
         <v>4346716</v>
@@ -46273,7 +46279,7 @@
         <v>29</v>
       </c>
       <c r="B583" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C583">
         <v>4498637</v>
@@ -46347,7 +46353,7 @@
         <v>29</v>
       </c>
       <c r="B584" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C584">
         <v>4911541</v>
@@ -46427,7 +46433,7 @@
         <v>29</v>
       </c>
       <c r="B585" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C585">
         <v>4848927</v>
@@ -46489,7 +46495,7 @@
         <v>29</v>
       </c>
       <c r="B586" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C586">
         <v>4238126</v>
@@ -46531,7 +46537,7 @@
         <v>0</v>
       </c>
       <c r="S586" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="T586" t="s">
         <v>148</v>
@@ -46575,7 +46581,7 @@
         <v>29</v>
       </c>
       <c r="B587" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C587">
         <v>5105172</v>
@@ -46628,7 +46634,7 @@
         <v>29</v>
       </c>
       <c r="B588" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C588">
         <v>4328934</v>
@@ -46670,7 +46676,7 @@
         <v>0</v>
       </c>
       <c r="Q588" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="T588" t="s">
         <v>40</v>
@@ -46714,7 +46720,7 @@
         <v>29</v>
       </c>
       <c r="B589" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C589">
         <v>4487140</v>
@@ -46791,7 +46797,7 @@
         <v>29</v>
       </c>
       <c r="B590" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C590">
         <v>4918709</v>
@@ -46853,7 +46859,7 @@
         <v>29</v>
       </c>
       <c r="B591" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C591">
         <v>5000090</v>
@@ -46912,7 +46918,7 @@
         <v>29</v>
       </c>
       <c r="B592" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C592">
         <v>4813166</v>
@@ -46954,7 +46960,7 @@
         <v>0</v>
       </c>
       <c r="Q592" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="T592" t="s">
         <v>40</v>
@@ -46983,7 +46989,7 @@
         <v>29</v>
       </c>
       <c r="B593" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C593">
         <v>5173958</v>
@@ -47001,7 +47007,7 @@
         <v>34</v>
       </c>
       <c r="H593" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="J593" t="s">
         <v>37</v>
@@ -47030,7 +47036,7 @@
         <v>29</v>
       </c>
       <c r="B594" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C594">
         <v>5105970</v>
@@ -47048,7 +47054,7 @@
         <v>34</v>
       </c>
       <c r="H594" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="I594" t="s">
         <v>75</v>
@@ -47072,7 +47078,7 @@
         <v>0.1</v>
       </c>
       <c r="S594" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="T594" t="s">
         <v>40</v>
@@ -47086,7 +47092,7 @@
         <v>29</v>
       </c>
       <c r="B595" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C595">
         <v>4806286</v>
@@ -47154,7 +47160,7 @@
         <v>29</v>
       </c>
       <c r="B596" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C596">
         <v>5009947</v>
@@ -47213,7 +47219,7 @@
         <v>29</v>
       </c>
       <c r="B597" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C597">
         <v>3115072</v>
@@ -47287,7 +47293,7 @@
         <v>29</v>
       </c>
       <c r="B598" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C598">
         <v>4400000</v>
@@ -47299,7 +47305,7 @@
         <v>43</v>
       </c>
       <c r="F598" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H598" t="s">
         <v>84</v>
@@ -47364,7 +47370,7 @@
         <v>29</v>
       </c>
       <c r="B599" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C599">
         <v>4967702</v>
@@ -47426,7 +47432,7 @@
         <v>29</v>
       </c>
       <c r="B600" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C600">
         <v>4360430</v>
@@ -47509,7 +47515,7 @@
         <v>29</v>
       </c>
       <c r="B601" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C601">
         <v>2694089</v>
@@ -47592,7 +47598,7 @@
         <v>29</v>
       </c>
       <c r="B602" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C602">
         <v>1294033</v>
@@ -47657,7 +47663,7 @@
         <v>29</v>
       </c>
       <c r="B603" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C603">
         <v>1804114</v>
@@ -47737,7 +47743,7 @@
         <v>29</v>
       </c>
       <c r="B604" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="C604">
         <v>5103059</v>
@@ -47790,7 +47796,7 @@
         <v>29</v>
       </c>
       <c r="B605" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C605">
         <v>4462930</v>
@@ -47832,7 +47838,7 @@
         <v>0.2</v>
       </c>
       <c r="Q605" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="T605" t="s">
         <v>40</v>
@@ -47870,7 +47876,7 @@
         <v>29</v>
       </c>
       <c r="B606" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C606">
         <v>4466221</v>
@@ -47912,7 +47918,7 @@
         <v>0.1</v>
       </c>
       <c r="Q606" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="T606" t="s">
         <v>40</v>
@@ -47950,7 +47956,7 @@
         <v>29</v>
       </c>
       <c r="B607" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C607">
         <v>4419765</v>
@@ -47992,7 +47998,7 @@
         <v>0</v>
       </c>
       <c r="Q607" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="T607" t="s">
         <v>40</v>
@@ -48030,7 +48036,7 @@
         <v>29</v>
       </c>
       <c r="B608" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C608">
         <v>4216504</v>
@@ -48072,7 +48078,7 @@
         <v>0</v>
       </c>
       <c r="S608" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="T608" t="s">
         <v>40</v>
@@ -48116,7 +48122,7 @@
         <v>29</v>
       </c>
       <c r="B609" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C609">
         <v>4422594</v>
@@ -48158,7 +48164,7 @@
         <v>0</v>
       </c>
       <c r="Q609" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="T609" t="s">
         <v>40</v>
@@ -48199,7 +48205,7 @@
         <v>29</v>
       </c>
       <c r="B610" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="C610">
         <v>4981655</v>
@@ -48258,7 +48264,7 @@
         <v>29</v>
       </c>
       <c r="B611" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C611">
         <v>2886520</v>
@@ -48332,7 +48338,7 @@
         <v>29</v>
       </c>
       <c r="B612" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C612">
         <v>4388077</v>
@@ -48412,7 +48418,7 @@
         <v>29</v>
       </c>
       <c r="B613" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C613">
         <v>4223226</v>
@@ -48498,7 +48504,7 @@
         <v>29</v>
       </c>
       <c r="B614" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C614">
         <v>4552944</v>
@@ -48540,7 +48546,7 @@
         <v>0</v>
       </c>
       <c r="S614" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="T614" t="s">
         <v>40</v>

--- a/controle.xlsx
+++ b/controle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36C61305-9CBB-4CD1-B3A2-1ED1EE9D5A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97D8A193-F568-49CC-B04E-9513FDB31355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABAB7CA5-06DB-4582-86EE-CFA5DBE16607}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7274B42A-6129-40ED-AF90-7D94D3D4D3C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -3131,11 +3131,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601359EB-97C7-49CB-9695-65A4A535392D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FCD3CF-C71E-4CF2-A28A-ACB0C2029162}">
   <dimension ref="A1:AK614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AK614"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43707,7 +43707,7 @@
         <v>34</v>
       </c>
       <c r="H548" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="J548" t="s">
         <v>37</v>
